--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -710,13 +710,13 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -728,10 +728,10 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -851,13 +851,13 @@
         <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.36</v>
@@ -983,7 +983,7 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -992,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1013,7 +1013,7 @@
         <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.53</v>
@@ -1137,13 +1137,13 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>3.75</v>
@@ -1158,7 +1158,7 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
         <v>1.4</v>
@@ -1409,67 +1409,67 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z7" t="n">
         <v>6.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1481,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
@@ -1496,10 +1496,10 @@
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1514,16 +1514,16 @@
         <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1576,10 +1576,10 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1600,10 +1600,10 @@
         <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2.05</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
         <v>4.65</v>
@@ -2428,7 +2428,7 @@
         <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>4.85</v>
@@ -2437,10 +2437,10 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
         <v>3.15</v>
@@ -2452,22 +2452,22 @@
         <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>1.3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V14" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
         <v>6.4</v>
@@ -2488,13 +2488,13 @@
         <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>90</v>
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>2.1</v>
@@ -2599,7 +2599,7 @@
         <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V15" t="n">
         <v>3.25</v>
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>2.05</v>
@@ -2740,7 +2740,7 @@
         <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -2839,22 +2839,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2869,22 +2869,22 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="W17" t="n">
         <v>2.1</v>
@@ -2911,7 +2911,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2944,10 +2944,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
         <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
@@ -3026,10 +3026,10 @@
         <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W18" t="n">
         <v>1.83</v>
@@ -3133,22 +3133,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>1.83</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
@@ -3157,16 +3157,16 @@
         <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
         <v>6</v>
@@ -3175,31 +3175,31 @@
         <v>1.13</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y19" t="n">
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
@@ -3208,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
@@ -3244,10 +3244,10 @@
         <v>1.78</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3324,7 +3324,7 @@
         <v>1.29</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V20" t="n">
         <v>2.75</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>4.75</v>
@@ -3594,7 +3594,7 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>2.4</v>
@@ -3606,13 +3606,13 @@
         <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V22" t="n">
         <v>3.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>2</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
@@ -3730,7 +3730,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3739,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
         <v>2.05</v>
@@ -3751,13 +3751,13 @@
         <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
         <v>2.2</v>
@@ -3802,7 +3802,7 @@
         <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
         <v>34</v>
@@ -3850,13 +3850,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
@@ -3892,13 +3892,13 @@
         <v>1.36</v>
       </c>
       <c r="U24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
         <v>2.1</v>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -4024,7 +4024,7 @@
         <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -4033,16 +4033,16 @@
         <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W25" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
         <v>6.5</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -4162,28 +4162,28 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
         <v>6.5</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -4306,7 +4306,7 @@
         <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
         <v>3.75</v>
@@ -4324,7 +4324,7 @@
         <v>2.25</v>
       </c>
       <c r="X27" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y27" t="n">
         <v>5.5</v>
@@ -4432,10 +4432,10 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5123,16 +5123,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
@@ -5183,7 +5183,7 @@
         <v>10</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -5192,13 +5192,13 @@
         <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -5210,7 +5210,7 @@
         <v>151</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -5225,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
         <v>3.1</v>
@@ -5285,7 +5285,7 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
         <v>1.17</v>
@@ -5300,16 +5300,16 @@
         <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
         <v>1.5</v>
@@ -5330,16 +5330,16 @@
         <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5351,7 +5351,7 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
         <v>15</v>
@@ -5366,15 +5366,15 @@
         <v>19</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS34" t="n">
         <v>1.95</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="35">
@@ -5691,22 +5691,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -5745,19 +5745,19 @@
         <v>2.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD37" t="n">
         <v>29</v>
@@ -5766,7 +5766,7 @@
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
         <v>13</v>
@@ -5778,22 +5778,22 @@
         <v>151</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO37" t="n">
         <v>23</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>26</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5832,36 +5832,36 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
         <v>2.82</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>3.15</v>
@@ -5879,25 +5879,25 @@
         <v>1.7</v>
       </c>
       <c r="X38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z38" t="n">
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD38" t="n">
         <v>30</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>32</v>
       </c>
       <c r="AE38" t="n">
         <v>8.5</v>
@@ -5912,25 +5912,25 @@
         <v>60</v>
       </c>
       <c r="AI38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK38" t="n">
         <v>14</v>
       </c>
       <c r="AL38" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO38" t="n">
         <v>32</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>29</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -6106,22 +6106,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6154,13 +6154,13 @@
         <v>2.75</v>
       </c>
       <c r="W40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
         <v>11</v>
@@ -6184,7 +6184,7 @@
         <v>6.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>41</v>
@@ -6196,7 +6196,7 @@
         <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL40" t="n">
         <v>11</v>
@@ -6205,10 +6205,10 @@
         <v>34</v>
       </c>
       <c r="AN40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6247,94 +6247,94 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K41" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P41" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z41" t="n">
         <v>8</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF41" t="n">
         <v>6.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK41" t="n">
         <v>19</v>
@@ -6343,7 +6343,7 @@
         <v>15</v>
       </c>
       <c r="AM41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="n">
         <v>41</v>
@@ -6352,10 +6352,10 @@
         <v>51</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6425,7 +6425,7 @@
         <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -6536,16 +6536,16 @@
         <v>1.73</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6557,37 +6557,37 @@
         <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U43" t="n">
         <v>1.53</v>
       </c>
-      <c r="S43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z43" t="n">
         <v>7</v>
@@ -6602,16 +6602,16 @@
         <v>17</v>
       </c>
       <c r="AD43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF43" t="n">
         <v>7</v>
       </c>
       <c r="AG43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH43" t="n">
         <v>81</v>
@@ -6620,13 +6620,13 @@
         <v>900</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK43" t="n">
         <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM43" t="n">
         <v>51</v>
@@ -6638,10 +6638,10 @@
         <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6708,10 +6708,10 @@
         <v>3.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
         <v>3.5</v>
@@ -6744,10 +6744,10 @@
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="n">
         <v>9.5</v>
@@ -6765,7 +6765,7 @@
         <v>251</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK44" t="n">
         <v>12</v>
@@ -6924,10 +6924,10 @@
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7226,94 +7226,98 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I48" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="J48" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="K48" t="n">
         <v>2.32</v>
       </c>
       <c r="L48" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.4</v>
+      </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="T48" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB48" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC48" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH48" t="n">
         <v>65</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>60</v>
       </c>
       <c r="AI48" t="n">
         <v>400</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AM48" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO48" t="n">
         <v>19.5</v>
@@ -7669,13 +7673,13 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z51" t="n">
         <v>11</v>
@@ -7687,13 +7691,13 @@
         <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD51" t="n">
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
         <v>7</v>
@@ -7708,7 +7712,7 @@
         <v>151</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK51" t="n">
         <v>17</v>
@@ -7720,7 +7724,7 @@
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO51" t="n">
         <v>29</v>
@@ -7771,13 +7775,13 @@
         <v>8.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7804,16 +7808,16 @@
         <v>1.44</v>
       </c>
       <c r="U52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y52" t="n">
         <v>7.5</v>
@@ -7822,7 +7826,7 @@
         <v>6.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
         <v>8.5</v>
@@ -7831,25 +7835,25 @@
         <v>11</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG52" t="n">
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="n">
         <v>351</v>
       </c>
       <c r="AJ52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
         <v>41</v>
@@ -8052,13 +8056,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
         <v>1.73</v>
@@ -8076,16 +8080,16 @@
         <v>8.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
         <v>3.5</v>
@@ -8100,16 +8104,16 @@
         <v>2.75</v>
       </c>
       <c r="W54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z54" t="n">
         <v>5</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>4.75</v>
       </c>
       <c r="AA54" t="n">
         <v>11</v>
@@ -8121,16 +8125,16 @@
         <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="n">
         <v>8.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH54" t="n">
         <v>151</v>
@@ -8139,22 +8143,22 @@
         <v>101</v>
       </c>
       <c r="AJ54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL54" t="n">
         <v>41</v>
       </c>
       <c r="AM54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AO54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -8623,7 +8627,7 @@
         <v>2.55</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
         <v>2.6</v>
@@ -8632,10 +8636,10 @@
         <v>3.1</v>
       </c>
       <c r="K58" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L58" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -8644,22 +8648,22 @@
         <v>13</v>
       </c>
       <c r="O58" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U58" t="n">
         <v>1.33</v>
@@ -8668,16 +8672,16 @@
         <v>3.25</v>
       </c>
       <c r="W58" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
         <v>10</v>
@@ -8689,13 +8693,13 @@
         <v>19</v>
       </c>
       <c r="AD58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
@@ -8704,10 +8708,10 @@
         <v>41</v>
       </c>
       <c r="AI58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK58" t="n">
         <v>15</v>
@@ -8722,7 +8726,7 @@
         <v>19</v>
       </c>
       <c r="AO58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -9201,7 +9205,7 @@
         <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K62" t="n">
         <v>2.75</v>
@@ -9440,10 +9444,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="64">
@@ -9487,7 +9491,7 @@
         <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
@@ -9623,22 +9627,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J65" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L65" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9677,13 +9681,13 @@
         <v>2.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB65" t="n">
         <v>23</v>
@@ -9722,7 +9726,7 @@
         <v>29</v>
       </c>
       <c r="AN65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
         <v>23</v>
@@ -9772,28 +9776,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H66" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K66" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9802,10 +9806,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R66" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S66" t="n">
         <v>2.63</v>
@@ -9814,16 +9818,16 @@
         <v>1.44</v>
       </c>
       <c r="U66" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V66" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y66" t="n">
         <v>7</v>
@@ -9835,7 +9839,7 @@
         <v>9.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC66" t="n">
         <v>12</v>
@@ -9844,13 +9848,13 @@
         <v>34</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH66" t="n">
         <v>81</v>
@@ -9865,7 +9869,7 @@
         <v>51</v>
       </c>
       <c r="AL66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM66" t="n">
         <v>151</v>
@@ -9874,19 +9878,19 @@
         <v>81</v>
       </c>
       <c r="AO66" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="67">
@@ -10488,16 +10492,16 @@
         <v>2.63</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L71" t="n">
         <v>3.6</v>
@@ -10509,34 +10513,34 @@
         <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V71" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X71" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y71" t="n">
         <v>7</v>
@@ -10551,7 +10555,7 @@
         <v>26</v>
       </c>
       <c r="AC71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
@@ -10569,10 +10573,10 @@
         <v>67</v>
       </c>
       <c r="AI71" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK71" t="n">
         <v>12</v>
@@ -10590,10 +10594,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10630,13 +10634,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H72" t="n">
         <v>2.9</v>
       </c>
       <c r="I72" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J72" t="n">
         <v>3.75</v>
@@ -10645,13 +10649,13 @@
         <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
         <v>1.4</v>
@@ -10684,19 +10688,19 @@
         <v>1.8</v>
       </c>
       <c r="Y72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA72" t="n">
         <v>12</v>
       </c>
       <c r="AB72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC72" t="n">
         <v>29</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>26</v>
       </c>
       <c r="AD72" t="n">
         <v>41</v>
@@ -10717,10 +10721,10 @@
         <v>351</v>
       </c>
       <c r="AJ72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL72" t="n">
         <v>10</v>
@@ -10729,7 +10733,7 @@
         <v>23</v>
       </c>
       <c r="AN72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO72" t="n">
         <v>34</v>
@@ -11194,19 +11198,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
         <v>1.73</v>
       </c>
       <c r="K76" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L76" t="n">
         <v>6.5</v>
@@ -11248,16 +11252,16 @@
         <v>1.91</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA76" t="n">
         <v>9</v>
       </c>
       <c r="AB76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
@@ -11272,7 +11276,7 @@
         <v>11</v>
       </c>
       <c r="AG76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH76" t="n">
         <v>51</v>
@@ -11281,7 +11285,7 @@
         <v>500</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK76" t="n">
         <v>41</v>
@@ -11293,7 +11297,7 @@
         <v>81</v>
       </c>
       <c r="AN76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO76" t="n">
         <v>41</v>
@@ -11335,22 +11339,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
         <v>4.75</v>
       </c>
       <c r="I77" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J77" t="n">
         <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L77" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
@@ -11377,10 +11381,10 @@
         <v>1.44</v>
       </c>
       <c r="U77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V77" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W77" t="n">
         <v>1.83</v>
@@ -11419,7 +11423,7 @@
         <v>51</v>
       </c>
       <c r="AI77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ77" t="n">
         <v>7.5</v>
@@ -11646,7 +11650,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O79" t="n">
         <v>1.39</v>
@@ -11697,7 +11701,7 @@
         <v>35</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF79" t="n">
         <v>6</v>
@@ -11712,7 +11716,7 @@
         <v>700</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK79" t="n">
         <v>13.5</v>
@@ -11724,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="AN79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO79" t="n">
         <v>40</v>
@@ -11772,16 +11776,16 @@
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K80" t="n">
         <v>2.15</v>
       </c>
       <c r="L80" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -11823,13 +11827,13 @@
         <v>6.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA80" t="n">
         <v>8.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC80" t="n">
         <v>13</v>
@@ -11841,7 +11845,7 @@
         <v>7.3</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG80" t="n">
         <v>17.5</v>
@@ -11853,16 +11857,16 @@
         <v>800</v>
       </c>
       <c r="AJ80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK80" t="n">
         <v>29</v>
       </c>
       <c r="AL80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM80" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN80" t="n">
         <v>55</v>
@@ -11907,22 +11911,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I81" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L81" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
@@ -11931,49 +11935,49 @@
         <v>34</v>
       </c>
       <c r="O81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R81" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="S81" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T81" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U81" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="V81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="W81" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X81" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB81" t="n">
         <v>21</v>
       </c>
       <c r="AC81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD81" t="n">
         <v>13</v>
@@ -11985,31 +11989,31 @@
         <v>15</v>
       </c>
       <c r="AG81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO81" t="n">
         <v>21</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>19</v>
       </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
@@ -12048,19 +12052,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L82" t="n">
         <v>3.4</v>
@@ -12090,16 +12094,16 @@
         <v>1.25</v>
       </c>
       <c r="U82" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V82" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W82" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X82" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y82" t="n">
         <v>8.5</v>
@@ -12108,13 +12112,13 @@
         <v>13</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
         <v>26</v>
       </c>
       <c r="AC82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD82" t="n">
         <v>34</v>
@@ -12129,13 +12133,13 @@
         <v>13</v>
       </c>
       <c r="AH82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI82" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK82" t="n">
         <v>13</v>
@@ -12144,7 +12148,7 @@
         <v>11</v>
       </c>
       <c r="AM82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN82" t="n">
         <v>23</v>
@@ -12231,7 +12235,7 @@
         <v>1.3</v>
       </c>
       <c r="U83" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V83" t="n">
         <v>2.75</v>
@@ -12795,7 +12799,7 @@
         <v>1.33</v>
       </c>
       <c r="U87" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V87" t="n">
         <v>2.75</v>
@@ -12894,105 +12898,109 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I88" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J88" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L88" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6</v>
+      </c>
       <c r="O88" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P88" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R88" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S88" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T88" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="U88" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V88" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W88" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="X88" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Z88" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AB88" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AD88" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE88" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF88" t="n">
         <v>5.7</v>
       </c>
       <c r="AG88" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI88" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AJ88" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK88" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AL88" t="n">
         <v>10</v>
       </c>
       <c r="AM88" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN88" t="n">
         <v>25</v>
       </c>
       <c r="AO88" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13031,22 +13039,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J89" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="K89" t="n">
         <v>1.85</v>
       </c>
       <c r="L89" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M89" t="n">
         <v>1.11</v>
@@ -13055,13 +13063,13 @@
         <v>5.8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P89" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R89" t="n">
         <v>1.42</v>
@@ -13085,16 +13093,16 @@
         <v>1.55</v>
       </c>
       <c r="Y89" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC89" t="n">
         <v>50</v>
@@ -13109,25 +13117,25 @@
         <v>6.1</v>
       </c>
       <c r="AG89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH89" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI89" t="n">
         <v>101</v>
       </c>
       <c r="AJ89" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AL89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN89" t="n">
         <v>21</v>
@@ -13172,105 +13180,105 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I90" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="K90" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L90" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P90" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="R90" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S90" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T90" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V90" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="W90" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="X90" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Y90" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Z90" t="n">
         <v>8.25</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB90" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD90" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE90" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF90" t="n">
         <v>5.9</v>
       </c>
       <c r="AG90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH90" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI90" t="n">
         <v>700</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK90" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL90" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN90" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO90" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
@@ -13309,7 +13317,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H91" t="n">
         <v>3.1</v>
@@ -13745,7 +13753,7 @@
         <v>2.27</v>
       </c>
       <c r="J94" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K94" t="n">
         <v>2.27</v>
@@ -13778,10 +13786,10 @@
         <v>1.5</v>
       </c>
       <c r="U94" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W94" t="n">
         <v>1.52</v>
@@ -13790,10 +13798,10 @@
         <v>2.37</v>
       </c>
       <c r="Y94" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z94" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA94" t="n">
         <v>10</v>
@@ -13802,7 +13810,7 @@
         <v>32</v>
       </c>
       <c r="AC94" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD94" t="n">
         <v>23</v>
@@ -13823,16 +13831,16 @@
         <v>250</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL94" t="n">
         <v>9.25</v>
       </c>
       <c r="AM94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN94" t="n">
         <v>16.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -1371,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
@@ -1451,7 +1451,7 @@
         <v>1.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
         <v>2.2</v>
@@ -1576,10 +1576,10 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1600,10 +1600,10 @@
         <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
         <v>2.05</v>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -1716,7 +1716,7 @@
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
@@ -1725,10 +1725,10 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -1749,7 +1749,7 @@
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V9" t="n">
         <v>3.5</v>
@@ -1779,10 +1779,10 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2575,16 +2575,16 @@
         <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -2599,7 +2599,7 @@
         <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V15" t="n">
         <v>3.25</v>
@@ -2740,7 +2740,7 @@
         <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -2869,22 +2869,22 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.53</v>
       </c>
-      <c r="S17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V17" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
         <v>2.1</v>
@@ -2944,10 +2944,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.83</v>
@@ -3175,7 +3175,7 @@
         <v>1.13</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -3306,25 +3306,25 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.3</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
         <v>2.75</v>
@@ -3606,7 +3606,7 @@
         <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
         <v>3.5</v>
@@ -3730,7 +3730,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3739,10 +3739,10 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>2.75</v>
@@ -3751,7 +3751,7 @@
         <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
@@ -3850,16 +3850,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3892,7 +3892,7 @@
         <v>1.36</v>
       </c>
       <c r="U24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -3907,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
         <v>10</v>
@@ -3919,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>11</v>
@@ -3937,7 +3937,7 @@
         <v>151</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -4033,10 +4033,10 @@
         <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W25" t="n">
         <v>1.91</v>
@@ -4174,7 +4174,7 @@
         <v>1.33</v>
       </c>
       <c r="U26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -4291,10 +4291,10 @@
         <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -4309,10 +4309,10 @@
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U27" t="n">
         <v>1.44</v>
@@ -4414,16 +4414,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
@@ -4444,10 +4444,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -4471,13 +4471,13 @@
         <v>6.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>19</v>
@@ -4501,7 +4501,7 @@
         <v>351</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
@@ -4730,10 +4730,10 @@
         <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -5123,19 +5123,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
         <v>4</v>
@@ -5144,25 +5144,25 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.33</v>
@@ -5180,13 +5180,13 @@
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA33" t="n">
         <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>15</v>
@@ -5195,7 +5195,7 @@
         <v>23</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>6.5</v>
@@ -5222,7 +5222,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5433,16 +5433,16 @@
         <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="n">
         <v>3.25</v>
@@ -5451,19 +5451,19 @@
         <v>1.33</v>
       </c>
       <c r="U35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z35" t="n">
         <v>10</v>
@@ -5478,25 +5478,25 @@
         <v>15</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
         <v>19</v>
@@ -5508,7 +5508,7 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO35" t="n">
         <v>34</v>
@@ -5568,10 +5568,10 @@
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
@@ -5580,10 +5580,10 @@
         <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
         <v>3.75</v>
@@ -5712,7 +5712,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -6106,16 +6106,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
@@ -6130,16 +6130,16 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
         <v>3.25</v>
@@ -6154,13 +6154,13 @@
         <v>2.75</v>
       </c>
       <c r="W40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
         <v>11</v>
@@ -6184,7 +6184,7 @@
         <v>6.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
         <v>41</v>
@@ -6205,10 +6205,10 @@
         <v>34</v>
       </c>
       <c r="AN40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6256,10 +6256,10 @@
         <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K41" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
@@ -6280,7 +6280,7 @@
         <v>2.7</v>
       </c>
       <c r="R41" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
         <v>6</v>
@@ -6425,7 +6425,7 @@
         <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6566,7 +6566,7 @@
         <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6699,13 +6699,13 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
         <v>2.05</v>
@@ -6714,10 +6714,10 @@
         <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U44" t="n">
         <v>1.44</v>
@@ -6819,13 +6819,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
@@ -6834,13 +6834,13 @@
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -6867,13 +6867,13 @@
         <v>2.25</v>
       </c>
       <c r="W45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z45" t="n">
         <v>12</v>
@@ -6882,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
         <v>26</v>
@@ -6894,7 +6894,7 @@
         <v>6.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6909,16 +6909,16 @@
         <v>7</v>
       </c>
       <c r="AK45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL45" t="n">
         <v>12</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>11</v>
       </c>
       <c r="AM45" t="n">
         <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO45" t="n">
         <v>41</v>
@@ -6986,10 +6986,10 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R46" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="S46" t="n">
         <v>2.07</v>
@@ -7000,10 +7000,10 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X46" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="Y46" t="n">
         <v>8.75</v>
@@ -7093,101 +7093,101 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H47" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>3.95</v>
+        <v>4.85</v>
       </c>
       <c r="J47" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K47" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L47" t="n">
-        <v>4.15</v>
+        <v>4.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="S47" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="X47" t="n">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="Z47" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC47" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL47" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AM47" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AO47" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="H48" t="n">
         <v>4.55</v>
@@ -7235,13 +7235,13 @@
         <v>1.24</v>
       </c>
       <c r="J48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L48" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -7252,10 +7252,10 @@
         <v>4.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R48" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
         <v>2.22</v>
@@ -7266,16 +7266,16 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X48" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Y48" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="n">
         <v>29</v>
@@ -7287,40 +7287,40 @@
         <v>120</v>
       </c>
       <c r="AD48" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF48" t="n">
         <v>8.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI48" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AM48" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7920,7 +7920,7 @@
         <v>2.35</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>1.95</v>
@@ -7953,16 +7953,16 @@
         <v>1.17</v>
       </c>
       <c r="U53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y53" t="n">
         <v>7.5</v>
@@ -7989,7 +7989,7 @@
         <v>6</v>
       </c>
       <c r="AG53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH53" t="n">
         <v>67</v>
@@ -8001,7 +8001,7 @@
         <v>6.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL53" t="n">
         <v>10</v>
@@ -8056,13 +8056,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H54" t="n">
         <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
         <v>1.73</v>
@@ -8071,13 +8071,13 @@
         <v>2.38</v>
       </c>
       <c r="L54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -8086,16 +8086,16 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8104,10 +8104,10 @@
         <v>2.75</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y54" t="n">
         <v>5.5</v>
@@ -8116,10 +8116,10 @@
         <v>5</v>
       </c>
       <c r="AA54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="n">
         <v>15</v>
@@ -8137,13 +8137,13 @@
         <v>34</v>
       </c>
       <c r="AH54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI54" t="n">
         <v>101</v>
       </c>
       <c r="AJ54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK54" t="n">
         <v>51</v>
@@ -8152,13 +8152,13 @@
         <v>41</v>
       </c>
       <c r="AM54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN54" t="n">
         <v>126</v>
       </c>
       <c r="AO54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -8197,13 +8197,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
@@ -8212,7 +8212,7 @@
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -8251,10 +8251,10 @@
         <v>2.63</v>
       </c>
       <c r="Y55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z55" t="n">
         <v>13</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>15</v>
       </c>
       <c r="AA55" t="n">
         <v>9.5</v>
@@ -8384,10 +8384,10 @@
         <v>1.33</v>
       </c>
       <c r="U56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
         <v>1.73</v>
@@ -8402,7 +8402,7 @@
         <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB56" t="n">
         <v>41</v>
@@ -8417,7 +8417,7 @@
         <v>11</v>
       </c>
       <c r="AF56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG56" t="n">
         <v>15</v>
@@ -8432,7 +8432,7 @@
         <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL56" t="n">
         <v>9</v>
@@ -8819,7 +8819,7 @@
         <v>2.25</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
         <v>12</v>
@@ -9120,7 +9120,7 @@
         <v>29</v>
       </c>
       <c r="AD61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE61" t="n">
         <v>15</v>
@@ -9199,13 +9199,13 @@
         <v>1.36</v>
       </c>
       <c r="H62" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
         <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K62" t="n">
         <v>2.75</v>
@@ -9232,10 +9232,10 @@
         <v>2.88</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U62" t="n">
         <v>1.22</v>
@@ -9268,7 +9268,7 @@
         <v>19</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF62" t="n">
         <v>11</v>
@@ -9337,22 +9337,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="n">
         <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9385,16 +9385,16 @@
         <v>3.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z63" t="n">
         <v>11</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>12</v>
       </c>
       <c r="AA63" t="n">
         <v>9</v>
@@ -9406,7 +9406,7 @@
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE63" t="n">
         <v>17</v>
@@ -9439,7 +9439,7 @@
         <v>26</v>
       </c>
       <c r="AO63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
@@ -9491,7 +9491,7 @@
         <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K64" t="n">
         <v>2.3</v>
@@ -9512,10 +9512,10 @@
         <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
         <v>2.5</v>
@@ -9530,10 +9530,10 @@
         <v>3.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X64" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y64" t="n">
         <v>10</v>
@@ -9545,7 +9545,7 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
         <v>15</v>
@@ -9584,7 +9584,7 @@
         <v>23</v>
       </c>
       <c r="AO64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
@@ -9627,22 +9627,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K65" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9681,13 +9681,13 @@
         <v>2.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB65" t="n">
         <v>23</v>
@@ -9726,7 +9726,7 @@
         <v>29</v>
       </c>
       <c r="AN65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO65" t="n">
         <v>23</v>
@@ -9738,10 +9738,10 @@
         <v>3.8</v>
       </c>
       <c r="AR65" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="66">
@@ -10228,7 +10228,7 @@
         <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.36</v>
@@ -10655,7 +10655,7 @@
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.4</v>
@@ -10916,85 +10916,85 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="I74" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J74" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K74" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L74" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="M74" t="n">
         <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P74" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q74" t="n">
         <v>1.4</v>
       </c>
       <c r="R74" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S74" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T74" t="n">
         <v>1.75</v>
       </c>
       <c r="U74" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V74" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="W74" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X74" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y74" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z74" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD74" t="n">
         <v>40</v>
       </c>
-      <c r="AA74" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>110</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>37</v>
-      </c>
       <c r="AE74" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF74" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG74" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH74" t="n">
         <v>45</v>
@@ -11006,16 +11006,16 @@
         <v>11.25</v>
       </c>
       <c r="AK74" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL74" t="n">
         <v>8.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN74" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO74" t="n">
         <v>17.5</v>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H76" t="n">
         <v>5.5</v>
@@ -11213,13 +11213,13 @@
         <v>2.63</v>
       </c>
       <c r="L76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M76" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O76" t="n">
         <v>1.14</v>
@@ -11246,19 +11246,19 @@
         <v>3.75</v>
       </c>
       <c r="W76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X76" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z76" t="n">
         <v>7.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB76" t="n">
         <v>9</v>
@@ -11273,7 +11273,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG76" t="n">
         <v>21</v>
@@ -11282,7 +11282,7 @@
         <v>51</v>
       </c>
       <c r="AI76" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ76" t="n">
         <v>23</v>
@@ -11291,7 +11291,7 @@
         <v>41</v>
       </c>
       <c r="AL76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM76" t="n">
         <v>81</v>
@@ -11363,16 +11363,16 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S77" t="n">
         <v>2.63</v>
@@ -11650,7 +11650,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O79" t="n">
         <v>1.39</v>
@@ -11683,7 +11683,7 @@
         <v>1.83</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z79" t="n">
         <v>11.25</v>
@@ -11695,19 +11695,19 @@
         <v>25</v>
       </c>
       <c r="AC79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD79" t="n">
         <v>35</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF79" t="n">
         <v>6</v>
       </c>
       <c r="AG79" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH79" t="n">
         <v>80</v>
@@ -11716,7 +11716,7 @@
         <v>700</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AK79" t="n">
         <v>13.5</v>
@@ -11911,22 +11911,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="H81" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" t="n">
         <v>4.75</v>
       </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K81" t="n">
         <v>3.1</v>
       </c>
       <c r="L81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
@@ -11959,40 +11959,40 @@
         <v>6.5</v>
       </c>
       <c r="W81" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X81" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC81" t="n">
         <v>12</v>
       </c>
       <c r="AD81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE81" t="n">
         <v>34</v>
       </c>
       <c r="AF81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI81" t="n">
         <v>41</v>
@@ -12004,7 +12004,7 @@
         <v>41</v>
       </c>
       <c r="AL81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM81" t="n">
         <v>51</v>
@@ -12013,7 +12013,7 @@
         <v>29</v>
       </c>
       <c r="AO81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
@@ -12076,10 +12076,10 @@
         <v>9</v>
       </c>
       <c r="O82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
         <v>2.08</v>
@@ -12088,10 +12088,10 @@
         <v>1.73</v>
       </c>
       <c r="S82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T82" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U82" t="n">
         <v>1.44</v>
@@ -12757,13 +12757,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J87" t="n">
         <v>2.88</v>
@@ -12787,16 +12787,16 @@
         <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R87" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U87" t="n">
         <v>1.4</v>
@@ -12805,28 +12805,28 @@
         <v>2.75</v>
       </c>
       <c r="W87" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X87" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y87" t="n">
         <v>8</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA87" t="n">
         <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC87" t="n">
         <v>17</v>
       </c>
       <c r="AD87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE87" t="n">
         <v>10</v>
@@ -12835,10 +12835,10 @@
         <v>6.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI87" t="n">
         <v>201</v>
@@ -13180,105 +13180,105 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H90" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I90" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K90" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L90" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="Q90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V90" t="n">
         <v>2.25</v>
       </c>
-      <c r="R90" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S90" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V90" t="n">
-        <v>2.18</v>
-      </c>
       <c r="W90" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X90" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y90" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB90" t="n">
         <v>17</v>
       </c>
       <c r="AC90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE90" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF90" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG90" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH90" t="n">
         <v>100</v>
       </c>
       <c r="AI90" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL90" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM90" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN90" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO90" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H91" t="n">
         <v>3.1</v>
@@ -13603,13 +13603,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>3.35</v>
       </c>
       <c r="I93" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J93" t="n">
         <v>2.45</v>
@@ -13660,7 +13660,7 @@
         <v>5.7</v>
       </c>
       <c r="Z93" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA93" t="n">
         <v>8.5</v>
@@ -13678,7 +13678,7 @@
         <v>7.9</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG93" t="n">
         <v>18</v>
@@ -13702,7 +13702,7 @@
         <v>75</v>
       </c>
       <c r="AN93" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO93" t="n">
         <v>60</v>
@@ -13885,13 +13885,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I95" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J95" t="n">
         <v>1.72</v>
@@ -13900,7 +13900,7 @@
         <v>2.6</v>
       </c>
       <c r="L95" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
@@ -13933,7 +13933,7 @@
         <v>3.35</v>
       </c>
       <c r="W95" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X95" t="n">
         <v>1.83</v>
@@ -13942,7 +13942,7 @@
         <v>8.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA95" t="n">
         <v>8.75</v>
@@ -13960,7 +13960,7 @@
         <v>9.25</v>
       </c>
       <c r="AF95" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG95" t="n">
         <v>21</v>
@@ -13975,7 +13975,7 @@
         <v>24</v>
       </c>
       <c r="AK95" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL95" t="n">
         <v>25</v>
@@ -13987,7 +13987,7 @@
         <v>90</v>
       </c>
       <c r="AO95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -740,16 +740,16 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -791,10 +791,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3.2</v>
@@ -986,7 +986,7 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1143,16 +1143,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>3.25</v>
@@ -1167,25 +1167,25 @@
         <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>29</v>
@@ -1197,28 +1197,28 @@
         <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>10</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1275,31 +1275,31 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1314,7 +1314,7 @@
         <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="n">
         <v>51</v>
@@ -1424,16 +1424,16 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P7" t="n">
         <v>2.25</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
         <v>2.2</v>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1558,34 +1558,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
         <v>2.4</v>
@@ -1597,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2.05</v>
@@ -1612,16 +1612,16 @@
         <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1648,7 +1648,7 @@
         <v>6.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>10</v>
@@ -1663,10 +1663,10 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR8" t="n">
         <v>3.95</v>
@@ -1728,28 +1728,28 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.53</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V9" t="n">
         <v>3.5</v>
@@ -1814,10 +1814,10 @@
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS9" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1.98</v>
       </c>
     </row>
     <row r="10">
@@ -2416,22 +2416,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L14" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2440,7 +2440,7 @@
         <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>3.15</v>
@@ -2452,16 +2452,16 @@
         <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="V14" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="W14" t="n">
         <v>1.91</v>
@@ -2473,13 +2473,13 @@
         <v>6.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA14" t="n">
         <v>8.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
@@ -2503,10 +2503,10 @@
         <v>800</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
         <v>15.5</v>
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -2593,10 +2593,10 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
         <v>1.33</v>
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
@@ -2719,7 +2719,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2755,22 +2755,22 @@
         <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>7</v>
@@ -2785,13 +2785,13 @@
         <v>151</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2854,7 +2854,7 @@
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2863,10 +2863,10 @@
         <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>2.5</v>
@@ -2881,10 +2881,10 @@
         <v>1.17</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
         <v>2.1</v>
@@ -2944,10 +2944,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
         <v>9.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3306,16 +3306,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>3.4</v>
@@ -3330,10 +3330,10 @@
         <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y20" t="n">
         <v>5.5</v>
@@ -3345,7 +3345,7 @@
         <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3357,7 +3357,7 @@
         <v>9.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG20" t="n">
         <v>29</v>
@@ -3369,22 +3369,22 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3423,109 +3423,109 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>2.02</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="U21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V21" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="W21" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
         <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB21" t="n">
         <v>45</v>
       </c>
       <c r="AC21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI21" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AK21" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL21" t="n">
         <v>9.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3564,13 +3564,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.91</v>
@@ -3639,13 +3639,13 @@
         <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG22" t="n">
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>201</v>
@@ -4027,10 +4027,10 @@
         <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
         <v>1.44</v>
@@ -4039,10 +4039,10 @@
         <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y25" t="n">
         <v>6.5</v>
@@ -4060,7 +4060,7 @@
         <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4150,13 +4150,13 @@
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>3.75</v>
@@ -4171,7 +4171,7 @@
         <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U26" t="n">
         <v>1.36</v>
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>7.5</v>
@@ -4288,31 +4288,31 @@
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
         <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
         <v>1.44</v>
@@ -4321,10 +4321,10 @@
         <v>2.63</v>
       </c>
       <c r="W27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
         <v>5.5</v>
@@ -4339,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
@@ -4369,7 +4369,7 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN27" t="n">
         <v>67</v>
@@ -4432,13 +4432,13 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4453,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4573,16 +4573,16 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
         <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>2.4</v>
@@ -4594,7 +4594,7 @@
         <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U29" t="n">
         <v>1.53</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
         <v>2.5</v>
@@ -4715,31 +4715,31 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4760,7 +4760,7 @@
         <v>8</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
@@ -4796,10 +4796,10 @@
         <v>15</v>
       </c>
       <c r="AM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN30" t="n">
         <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
@@ -4859,13 +4859,13 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
         <v>3.4</v>
@@ -4880,7 +4880,7 @@
         <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -5000,28 +5000,28 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S32" t="n">
         <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5132,7 +5132,7 @@
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K33" t="n">
         <v>2.25</v>
@@ -5144,7 +5144,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
@@ -5264,22 +5264,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.1</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5318,7 +5318,7 @@
         <v>2.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
         <v>15</v>
@@ -5330,7 +5330,7 @@
         <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="n">
         <v>21</v>
@@ -5351,7 +5351,7 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK34" t="n">
         <v>15</v>
@@ -5363,7 +5363,7 @@
         <v>26</v>
       </c>
       <c r="AN34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
         <v>21</v>
@@ -5415,10 +5415,10 @@
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -5439,10 +5439,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="n">
         <v>3.25</v>
@@ -5463,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>9</v>
@@ -5475,7 +5475,7 @@
         <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
         <v>26</v>
@@ -5490,7 +5490,7 @@
         <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
         <v>201</v>
@@ -5502,7 +5502,7 @@
         <v>19</v>
       </c>
       <c r="AL35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -5568,10 +5568,10 @@
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
@@ -5969,22 +5969,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -5992,7 +5992,7 @@
         <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q39" t="n">
         <v>1.98</v>
@@ -6013,49 +6013,49 @@
         <v>2.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Y39" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
         <v>8.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC39" t="n">
         <v>16.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="n">
         <v>600</v>
       </c>
       <c r="AJ39" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="n">
         <v>12.5</v>
@@ -6106,22 +6106,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J40" t="n">
         <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.88</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6148,10 +6148,10 @@
         <v>1.33</v>
       </c>
       <c r="U40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>1.7</v>
@@ -6163,16 +6163,16 @@
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
         <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="n">
         <v>26</v>
@@ -6196,13 +6196,13 @@
         <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL40" t="n">
         <v>11</v>
       </c>
       <c r="AM40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
         <v>23</v>
@@ -6253,22 +6253,22 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
         <v>2.88</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.57</v>
@@ -6277,10 +6277,10 @@
         <v>2.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S41" t="n">
         <v>6</v>
@@ -6295,10 +6295,10 @@
         <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y41" t="n">
         <v>5</v>
@@ -6310,7 +6310,7 @@
         <v>10</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>21</v>
@@ -6328,16 +6328,16 @@
         <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL41" t="n">
         <v>15</v>
@@ -6533,28 +6533,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" t="n">
         <v>1.5</v>
@@ -6575,10 +6575,10 @@
         <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
         <v>2.25</v>
@@ -6593,13 +6593,13 @@
         <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
@@ -6831,7 +6831,7 @@
         <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L45" t="n">
         <v>3.75</v>
@@ -7093,89 +7093,89 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
         <v>4.85</v>
       </c>
       <c r="J47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T47" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="X47" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
         <v>45</v>
       </c>
       <c r="AI47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL47" t="n">
         <v>13</v>
@@ -7184,10 +7184,10 @@
         <v>65</v>
       </c>
       <c r="AN47" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO47" t="n">
         <v>35</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>32</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7504,7 +7504,7 @@
         <v>2.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="L50" t="n">
         <v>3.75</v>
@@ -7512,36 +7512,36 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="S50" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X50" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA50" t="n">
         <v>6.8</v>
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
         <v>18</v>
@@ -7562,16 +7562,16 @@
         <v>6</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="n">
         <v>101</v>
       </c>
       <c r="AJ50" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK50" t="n">
         <v>15</v>
@@ -7643,13 +7643,13 @@
         <v>3.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -7664,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U51" t="n">
         <v>1.36</v>
@@ -7673,7 +7673,7 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X51" t="n">
         <v>2.1</v>
@@ -7784,13 +7784,13 @@
         <v>7.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
         <v>4.33</v>
@@ -7802,10 +7802,10 @@
         <v>2.15</v>
       </c>
       <c r="S52" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T52" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U52" t="n">
         <v>1.3</v>
@@ -7814,10 +7814,10 @@
         <v>3.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X52" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y52" t="n">
         <v>7.5</v>
@@ -8080,16 +8080,16 @@
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S54" t="n">
         <v>3.4</v>
@@ -8342,28 +8342,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8372,16 +8372,16 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U56" t="n">
         <v>1.36</v>
@@ -8396,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="Y56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z56" t="n">
         <v>19</v>
@@ -8435,7 +8435,7 @@
         <v>9.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM56" t="n">
         <v>17</v>
@@ -8783,10 +8783,10 @@
         <v>3.6</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
         <v>1.2</v>
@@ -8936,16 +8936,16 @@
         <v>5</v>
       </c>
       <c r="Q60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T60" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.57</v>
       </c>
       <c r="U60" t="n">
         <v>1.29</v>
@@ -9013,10 +9013,10 @@
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="61">
@@ -9081,7 +9081,7 @@
         <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R61" t="n">
         <v>2.3</v>
@@ -9226,10 +9226,10 @@
         <v>6.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R62" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -9337,22 +9337,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I63" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9367,7 +9367,7 @@
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R63" t="n">
         <v>2.35</v>
@@ -9421,7 +9421,7 @@
         <v>34</v>
       </c>
       <c r="AI63" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ63" t="n">
         <v>15</v>
@@ -9444,10 +9444,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="64">
@@ -9482,13 +9482,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J64" t="n">
         <v>2.75</v>
@@ -9497,7 +9497,7 @@
         <v>2.3</v>
       </c>
       <c r="L64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9512,7 +9512,7 @@
         <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R64" t="n">
         <v>2.25</v>
@@ -9563,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI64" t="n">
         <v>126</v>
@@ -9627,22 +9627,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J65" t="n">
         <v>2.88</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9651,43 +9651,43 @@
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R65" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X65" t="n">
         <v>2.38</v>
       </c>
-      <c r="T65" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X65" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Y65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB65" t="n">
         <v>23</v>
@@ -9696,7 +9696,7 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
@@ -9711,10 +9711,10 @@
         <v>34</v>
       </c>
       <c r="AI65" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK65" t="n">
         <v>17</v>
@@ -9726,22 +9726,22 @@
         <v>29</v>
       </c>
       <c r="AN65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
         <v>23</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
@@ -9776,16 +9776,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="K66" t="n">
         <v>2.6</v>
@@ -9794,10 +9794,10 @@
         <v>9.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
         <v>1.2</v>
@@ -9806,10 +9806,10 @@
         <v>4.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S66" t="n">
         <v>2.63</v>
@@ -9818,10 +9818,10 @@
         <v>1.44</v>
       </c>
       <c r="U66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V66" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W66" t="n">
         <v>2.2</v>
@@ -9848,10 +9848,10 @@
         <v>34</v>
       </c>
       <c r="AE66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
         <v>26</v>
@@ -9872,7 +9872,7 @@
         <v>29</v>
       </c>
       <c r="AM66" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN66" t="n">
         <v>81</v>
@@ -9881,16 +9881,16 @@
         <v>67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="67">
@@ -10501,7 +10501,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L71" t="n">
         <v>3.6</v>
@@ -10594,10 +10594,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -11339,16 +11339,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>4.75</v>
       </c>
       <c r="I77" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K77" t="n">
         <v>2.38</v>
@@ -11357,10 +11357,10 @@
         <v>1.91</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
         <v>1.22</v>
@@ -11387,10 +11387,10 @@
         <v>3.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X77" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y77" t="n">
         <v>17</v>
@@ -11411,7 +11411,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF77" t="n">
         <v>9.5</v>
@@ -11426,13 +11426,13 @@
         <v>700</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK77" t="n">
         <v>7</v>
       </c>
       <c r="AL77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM77" t="n">
         <v>9.5</v>
@@ -11650,7 +11650,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O79" t="n">
         <v>1.39</v>
@@ -11677,13 +11677,13 @@
         <v>2.42</v>
       </c>
       <c r="W79" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X79" t="n">
         <v>1.83</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z79" t="n">
         <v>11.25</v>
@@ -11695,19 +11695,19 @@
         <v>25</v>
       </c>
       <c r="AC79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD79" t="n">
         <v>35</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF79" t="n">
         <v>6</v>
       </c>
       <c r="AG79" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH79" t="n">
         <v>80</v>
@@ -11716,7 +11716,7 @@
         <v>700</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK79" t="n">
         <v>13.5</v>
@@ -11776,7 +11776,7 @@
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J80" t="n">
         <v>2.18</v>
@@ -11800,7 +11800,7 @@
         <v>3.2</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R80" t="n">
         <v>1.82</v>
@@ -11824,7 +11824,7 @@
         <v>1.8</v>
       </c>
       <c r="Y80" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z80" t="n">
         <v>7.2</v>
@@ -11845,7 +11845,7 @@
         <v>7.3</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG80" t="n">
         <v>17.5</v>
@@ -11854,16 +11854,16 @@
         <v>90</v>
       </c>
       <c r="AI80" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ80" t="n">
         <v>13</v>
       </c>
       <c r="AK80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL80" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM80" t="n">
         <v>100</v>
@@ -11911,19 +11911,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H81" t="n">
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
         <v>1.91</v>
       </c>
       <c r="K81" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L81" t="n">
         <v>4</v>
@@ -11938,49 +11938,49 @@
         <v>1.03</v>
       </c>
       <c r="P81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="R81" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="S81" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="V81" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W81" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="X81" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC81" t="n">
         <v>12</v>
       </c>
       <c r="AD81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE81" t="n">
         <v>34</v>
@@ -11992,7 +11992,7 @@
         <v>13</v>
       </c>
       <c r="AH81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI81" t="n">
         <v>41</v>
@@ -12013,7 +12013,7 @@
         <v>29</v>
       </c>
       <c r="AO81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -12061,10 +12061,10 @@
         <v>2.8</v>
       </c>
       <c r="J82" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L82" t="n">
         <v>3.4</v>
@@ -12082,16 +12082,16 @@
         <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R82" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T82" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U82" t="n">
         <v>1.44</v>
@@ -12100,46 +12100,46 @@
         <v>2.63</v>
       </c>
       <c r="W82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X82" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z82" t="n">
         <v>13</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
         <v>26</v>
       </c>
       <c r="AC82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG82" t="n">
         <v>13</v>
       </c>
       <c r="AH82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI82" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK82" t="n">
         <v>13</v>
@@ -12148,7 +12148,7 @@
         <v>11</v>
       </c>
       <c r="AM82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN82" t="n">
         <v>23</v>
@@ -12757,13 +12757,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J87" t="n">
         <v>2.88</v>
@@ -12775,10 +12775,10 @@
         <v>3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O87" t="n">
         <v>1.29</v>
@@ -12820,7 +12820,7 @@
         <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC87" t="n">
         <v>17</v>
@@ -12835,7 +12835,7 @@
         <v>6.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH87" t="n">
         <v>41</v>
@@ -12898,22 +12898,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I88" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J88" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K88" t="n">
         <v>1.85</v>
       </c>
       <c r="L88" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M88" t="n">
         <v>1.11</v>
@@ -12952,22 +12952,22 @@
         <v>1.65</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z88" t="n">
         <v>14.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB88" t="n">
         <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE88" t="n">
         <v>6.6</v>
@@ -12976,7 +12976,7 @@
         <v>5.7</v>
       </c>
       <c r="AG88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH88" t="n">
         <v>100</v>
@@ -12988,19 +12988,19 @@
         <v>6.2</v>
       </c>
       <c r="AK88" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM88" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN88" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13606,10 +13606,10 @@
         <v>1.8</v>
       </c>
       <c r="H93" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I93" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J93" t="n">
         <v>2.45</v>
@@ -13618,7 +13618,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M93" t="n">
         <v>1.1</v>
@@ -13669,7 +13669,7 @@
         <v>14</v>
       </c>
       <c r="AC93" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD93" t="n">
         <v>35</v>
@@ -13678,7 +13678,7 @@
         <v>7.9</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG93" t="n">
         <v>18</v>
@@ -13702,7 +13702,7 @@
         <v>75</v>
       </c>
       <c r="AN93" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO93" t="n">
         <v>60</v>
@@ -13885,82 +13885,82 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H95" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I95" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K95" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="L95" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P95" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R95" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="S95" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="T95" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U95" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="V95" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="W95" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X95" t="n">
         <v>1.83</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z95" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB95" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC95" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD95" t="n">
         <v>25</v>
       </c>
       <c r="AE95" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG95" t="n">
         <v>21</v>
@@ -13972,13 +13972,13 @@
         <v>600</v>
       </c>
       <c r="AJ95" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL95" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM95" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -698,13 +698,13 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -740,13 +740,13 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -782,7 +782,7 @@
         <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -794,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1137,10 +1137,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,16 +1149,16 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.4</v>
@@ -1188,10 +1188,10 @@
         <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1206,13 +1206,13 @@
         <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1278,28 +1278,28 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1409,31 +1409,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
         <v>2.25</v>
@@ -1448,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1475,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1561,7 +1561,7 @@
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>2.5</v>
@@ -1570,46 +1570,46 @@
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" t="n">
         <v>7</v>
@@ -1621,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1663,16 +1663,16 @@
         <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -1707,34 +1707,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57</v>
@@ -1743,10 +1743,10 @@
         <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
         <v>1.29</v>
@@ -1755,22 +1755,22 @@
         <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -1782,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -1814,10 +1814,10 @@
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.22</v>
@@ -1867,49 +1867,49 @@
         <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.32</v>
       </c>
       <c r="U10" t="n">
         <v>1.42</v>
       </c>
       <c r="V10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA10" t="n">
         <v>8.25</v>
@@ -1921,40 +1921,40 @@
         <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF10" t="n">
         <v>7.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>90</v>
       </c>
       <c r="AI10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM10" t="n">
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2422,40 +2422,40 @@
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
         <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U14" t="n">
         <v>1.42</v>
@@ -2464,55 +2464,55 @@
         <v>2.65</v>
       </c>
       <c r="W14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="n">
         <v>7.3</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7.2</v>
       </c>
       <c r="AF14" t="n">
         <v>7.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ14" t="n">
         <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
         <v>15.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>50</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
         <v>4.2</v>
@@ -2575,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2587,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>2.75</v>
@@ -2614,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
@@ -2623,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>23</v>
@@ -2656,7 +2656,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
         <v>41</v>
@@ -2719,7 +2719,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
@@ -2851,16 +2851,16 @@
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2869,16 +2869,16 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U17" t="n">
         <v>1.57</v>
@@ -2887,19 +2887,19 @@
         <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
@@ -2911,7 +2911,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2920,13 +2920,13 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
@@ -2944,10 +2944,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2984,16 +2984,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -3038,10 +3038,10 @@
         <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>9.5</v>
@@ -3050,7 +3050,7 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
@@ -3071,7 +3071,7 @@
         <v>301</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3083,7 +3083,7 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -3169,10 +3169,10 @@
         <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U19" t="n">
         <v>1.67</v>
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
@@ -3214,7 +3214,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI19" t="n">
         <v>101</v>
@@ -3244,10 +3244,10 @@
         <v>1.78</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="20">
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3306,22 +3306,22 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U20" t="n">
         <v>1.4</v>
@@ -3330,40 +3330,40 @@
         <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="X20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y20" t="n">
         <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="n">
         <v>101</v>
@@ -3372,19 +3372,19 @@
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN20" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="L21" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3447,10 +3447,10 @@
         <v>7.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q21" t="n">
         <v>1.95</v>
@@ -3459,37 +3459,37 @@
         <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="V21" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="W21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD21" t="n">
         <v>35</v>
@@ -3498,31 +3498,31 @@
         <v>7.4</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AK21" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
         <v>32</v>
@@ -3570,22 +3570,22 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -3594,22 +3594,22 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W22" t="n">
         <v>1.75</v>
@@ -3627,7 +3627,7 @@
         <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -3636,10 +3636,10 @@
         <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>17</v>
@@ -3663,7 +3663,7 @@
         <v>81</v>
       </c>
       <c r="AN22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO22" t="n">
         <v>41</v>
@@ -3671,10 +3671,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="23">
@@ -3721,34 +3721,34 @@
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
         <v>1.36</v>
@@ -3763,7 +3763,7 @@
         <v>2.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
         <v>12</v>
@@ -3781,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
@@ -3796,13 +3796,13 @@
         <v>151</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
         <v>34</v>
@@ -3868,10 +3868,10 @@
         <v>3.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -3880,10 +3880,10 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
@@ -3991,22 +3991,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4021,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -4045,7 +4045,7 @@
         <v>1.73</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z25" t="n">
         <v>8</v>
@@ -4060,10 +4060,10 @@
         <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
         <v>6.5</v>
@@ -4072,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI25" t="n">
         <v>351</v>
@@ -4087,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN25" t="n">
         <v>41</v>
@@ -4150,13 +4150,13 @@
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
         <v>3.75</v>
@@ -4171,7 +4171,7 @@
         <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.36</v>
@@ -4273,46 +4273,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
         <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.44</v>
@@ -4321,52 +4321,52 @@
         <v>2.63</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
         <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="n">
         <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI27" t="n">
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>101</v>
@@ -4414,13 +4414,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
         <v>2.75</v>
@@ -4429,31 +4429,31 @@
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4462,16 +4462,16 @@
         <v>2.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y28" t="n">
         <v>6.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
@@ -4480,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>34</v>
@@ -4504,7 +4504,7 @@
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -4555,13 +4555,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4570,31 +4570,31 @@
         <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
         <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U29" t="n">
         <v>1.53</v>
@@ -4612,10 +4612,10 @@
         <v>6</v>
       </c>
       <c r="Z29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>10</v>
       </c>
       <c r="AB29" t="n">
         <v>21</v>
@@ -4624,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="n">
         <v>7</v>
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>67</v>
@@ -4645,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -4660,10 +4660,10 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4718,13 +4718,13 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
         <v>3.25</v>
@@ -4736,10 +4736,10 @@
         <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4841,43 +4841,43 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
         <v>1.25</v>
@@ -4901,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -4931,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -4988,7 +4988,7 @@
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
@@ -5000,28 +5000,28 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5069,7 +5069,7 @@
         <v>251</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
@@ -5123,16 +5123,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.25</v>
@@ -5177,16 +5177,16 @@
         <v>2.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
         <v>15</v>
@@ -5201,7 +5201,7 @@
         <v>6.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5222,7 +5222,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5264,22 +5264,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5300,10 +5300,10 @@
         <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
         <v>1.29</v>
@@ -5321,19 +5321,19 @@
         <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
         <v>17</v>
@@ -5360,7 +5360,7 @@
         <v>10</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>
@@ -5371,10 +5371,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="35">
@@ -5418,7 +5418,7 @@
         <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -5556,13 +5556,13 @@
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
         <v>4.33</v>
@@ -5574,16 +5574,16 @@
         <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>3.75</v>
@@ -5598,16 +5598,16 @@
         <v>2.63</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
@@ -5622,25 +5622,25 @@
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
         <v>6.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
         <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL36" t="n">
         <v>13</v>
@@ -5649,7 +5649,7 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
         <v>41</v>
@@ -5691,10 +5691,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
         <v>2.1</v>
@@ -5706,79 +5706,79 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V37" t="n">
         <v>2.75</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="W37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X37" t="n">
         <v>2</v>
       </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X37" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
         <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK37" t="n">
         <v>11</v>
@@ -5793,7 +5793,7 @@
         <v>17</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5832,19 +5832,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="J38" t="n">
         <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
         <v>3.25</v>
@@ -5855,7 +5855,7 @@
         <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q38" t="n">
         <v>1.98</v>
@@ -5882,16 +5882,16 @@
         <v>1.91</v>
       </c>
       <c r="Y38" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA38" t="n">
         <v>9.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC38" t="n">
         <v>22</v>
@@ -5915,16 +5915,16 @@
         <v>500</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL38" t="n">
         <v>10</v>
       </c>
       <c r="AM38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN38" t="n">
         <v>24</v>
@@ -6106,22 +6106,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -6130,16 +6130,16 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S40" t="n">
         <v>3.25</v>
@@ -6148,10 +6148,10 @@
         <v>1.33</v>
       </c>
       <c r="U40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W40" t="n">
         <v>1.7</v>
@@ -6160,7 +6160,7 @@
         <v>2.05</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
         <v>12</v>
@@ -6169,7 +6169,7 @@
         <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
         <v>19</v>
@@ -6193,19 +6193,19 @@
         <v>201</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
         <v>15</v>
       </c>
       <c r="AL40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO40" t="n">
         <v>29</v>
@@ -6250,13 +6250,13 @@
         <v>2</v>
       </c>
       <c r="H41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.88</v>
       </c>
       <c r="K41" t="n">
         <v>1.83</v>
@@ -6265,40 +6265,40 @@
         <v>5</v>
       </c>
       <c r="M41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T41" t="n">
         <v>1.11</v>
       </c>
-      <c r="N41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>6</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.13</v>
-      </c>
       <c r="U41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y41" t="n">
         <v>5</v>
@@ -6313,19 +6313,19 @@
         <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
         <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF41" t="n">
         <v>6.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH41" t="n">
         <v>101</v>
@@ -6337,13 +6337,13 @@
         <v>7.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
         <v>15</v>
       </c>
       <c r="AM41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
         <v>41</v>
@@ -6422,10 +6422,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6708,10 +6708,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
         <v>3.75</v>
@@ -6819,19 +6819,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J45" t="n">
         <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L45" t="n">
         <v>3.75</v>
@@ -6986,10 +6986,10 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R46" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S46" t="n">
         <v>2.07</v>
@@ -7000,10 +7000,10 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X46" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y46" t="n">
         <v>8.75</v>
@@ -7116,7 +7116,7 @@
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -7125,18 +7125,18 @@
         <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="T47" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X47" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Y47" t="n">
         <v>6.5</v>
@@ -7226,36 +7226,36 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="J48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="n">
         <v>2.22</v>
@@ -7266,61 +7266,61 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="X48" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AC48" t="n">
         <v>120</v>
       </c>
       <c r="AD48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
         <v>450</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AM48" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AN48" t="n">
         <v>8.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7359,22 +7359,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -7382,16 +7382,16 @@
         <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R49" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T49" t="n">
         <v>1.41</v>
@@ -7399,61 +7399,61 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X49" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.6</v>
+        <v>9.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.4</v>
+        <v>8.75</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK49" t="n">
         <v>10</v>
       </c>
-      <c r="AF49" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AL49" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AM49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
@@ -7492,101 +7492,101 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K50" t="n">
-        <v>2.29</v>
+        <v>2.12</v>
       </c>
       <c r="L50" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="S50" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="X50" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="Y50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA50" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z50" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
         <v>18</v>
       </c>
       <c r="AE50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF50" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9.6</v>
+        <v>9.25</v>
       </c>
       <c r="AK50" t="n">
         <v>15</v>
       </c>
       <c r="AL50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN50" t="n">
         <v>21</v>
       </c>
       <c r="AO50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7625,13 +7625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
         <v>2.75</v>
@@ -7643,13 +7643,13 @@
         <v>3.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -7661,10 +7661,10 @@
         <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U51" t="n">
         <v>1.36</v>
@@ -7673,13 +7673,13 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
         <v>11</v>
@@ -7688,16 +7688,16 @@
         <v>9</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD51" t="n">
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF51" t="n">
         <v>7</v>
@@ -7712,19 +7712,19 @@
         <v>151</v>
       </c>
       <c r="AJ51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK51" t="n">
         <v>17</v>
       </c>
       <c r="AL51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM51" t="n">
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO51" t="n">
         <v>29</v>
@@ -7766,31 +7766,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H52" t="n">
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
         <v>4.33</v>
@@ -7802,25 +7802,25 @@
         <v>2.15</v>
       </c>
       <c r="S52" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T52" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z52" t="n">
         <v>6.5</v>
@@ -7847,10 +7847,10 @@
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ52" t="n">
         <v>21</v>
@@ -7859,13 +7859,13 @@
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM52" t="n">
         <v>101</v>
       </c>
       <c r="AN52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO52" t="n">
         <v>51</v>
@@ -7914,7 +7914,7 @@
         <v>2.9</v>
       </c>
       <c r="H53" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I53" t="n">
         <v>2.35</v>
@@ -7923,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L53" t="n">
         <v>3.25</v>
@@ -7935,16 +7935,16 @@
         <v>7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -7983,7 +7983,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF53" t="n">
         <v>6</v>
@@ -8016,10 +8016,10 @@
         <v>41</v>
       </c>
       <c r="AP53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>1.85</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1.95</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8056,19 +8056,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
         <v>1.73</v>
       </c>
       <c r="K54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
         <v>12</v>
@@ -8086,16 +8086,16 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S54" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8116,19 +8116,19 @@
         <v>5</v>
       </c>
       <c r="AA54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD54" t="n">
         <v>41</v>
       </c>
       <c r="AE54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF54" t="n">
         <v>10</v>
@@ -8143,7 +8143,7 @@
         <v>101</v>
       </c>
       <c r="AJ54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
         <v>51</v>
@@ -8215,10 +8215,10 @@
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O55" t="n">
         <v>1.14</v>
@@ -8342,13 +8342,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J56" t="n">
         <v>4.33</v>
@@ -8357,13 +8357,13 @@
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8372,16 +8372,16 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U56" t="n">
         <v>1.36</v>
@@ -8399,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA56" t="n">
         <v>13</v>
@@ -8423,7 +8423,7 @@
         <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="n">
         <v>201</v>
@@ -8492,7 +8492,7 @@
         <v>3.4</v>
       </c>
       <c r="J57" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
@@ -8579,10 +8579,10 @@
         <v>12</v>
       </c>
       <c r="AM57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO57" t="n">
         <v>29</v>
@@ -8630,16 +8630,16 @@
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J58" t="n">
         <v>3.1</v>
       </c>
       <c r="K58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -8648,28 +8648,28 @@
         <v>13</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R58" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U58" t="n">
         <v>1.33</v>
       </c>
       <c r="V58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -8696,13 +8696,13 @@
         <v>26</v>
       </c>
       <c r="AE58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH58" t="n">
         <v>41</v>
@@ -8723,7 +8723,7 @@
         <v>26</v>
       </c>
       <c r="AN58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO58" t="n">
         <v>26</v>
@@ -8807,7 +8807,7 @@
         <v>1.44</v>
       </c>
       <c r="U59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V59" t="n">
         <v>3.25</v>
@@ -8936,7 +8936,7 @@
         <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R60" t="n">
         <v>2.35</v>
@@ -8948,7 +8948,7 @@
         <v>1.53</v>
       </c>
       <c r="U60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V60" t="n">
         <v>3.5</v>
@@ -9081,10 +9081,10 @@
         <v>4.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S61" t="n">
         <v>2.5</v>
@@ -9093,7 +9093,7 @@
         <v>1.5</v>
       </c>
       <c r="U61" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V61" t="n">
         <v>3.4</v>
@@ -9158,10 +9158,10 @@
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
       <c r="AR61" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="62">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H62" t="n">
         <v>5</v>
@@ -9211,7 +9211,7 @@
         <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -9226,28 +9226,28 @@
         <v>6.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R62" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U62" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V62" t="n">
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
@@ -9259,7 +9259,7 @@
         <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC62" t="n">
         <v>10</v>
@@ -9271,16 +9271,16 @@
         <v>21</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
       </c>
       <c r="AI62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ62" t="n">
         <v>26</v>
@@ -9337,28 +9337,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="n">
         <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O63" t="n">
         <v>1.17</v>
@@ -9367,7 +9367,7 @@
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R63" t="n">
         <v>2.35</v>
@@ -9379,7 +9379,7 @@
         <v>1.53</v>
       </c>
       <c r="U63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V63" t="n">
         <v>3.5</v>
@@ -9397,7 +9397,7 @@
         <v>11</v>
       </c>
       <c r="AA63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB63" t="n">
         <v>17</v>
@@ -9418,7 +9418,7 @@
         <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI63" t="n">
         <v>126</v>
@@ -9427,7 +9427,7 @@
         <v>15</v>
       </c>
       <c r="AK63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL63" t="n">
         <v>13</v>
@@ -9436,7 +9436,7 @@
         <v>41</v>
       </c>
       <c r="AN63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO63" t="n">
         <v>29</v>
@@ -9444,10 +9444,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="64">
@@ -9488,7 +9488,7 @@
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J64" t="n">
         <v>2.75</v>
@@ -9497,7 +9497,7 @@
         <v>2.3</v>
       </c>
       <c r="L64" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64" t="n">
         <v>1.03</v>
@@ -9512,7 +9512,7 @@
         <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
         <v>2.25</v>
@@ -9524,7 +9524,7 @@
         <v>1.5</v>
       </c>
       <c r="U64" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V64" t="n">
         <v>3.4</v>
@@ -9627,16 +9627,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
@@ -9645,28 +9645,28 @@
         <v>3.25</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U65" t="n">
         <v>1.33</v>
@@ -9687,7 +9687,7 @@
         <v>13</v>
       </c>
       <c r="AA65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB65" t="n">
         <v>23</v>
@@ -9699,7 +9699,7 @@
         <v>23</v>
       </c>
       <c r="AE65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF65" t="n">
         <v>7</v>
@@ -9717,7 +9717,7 @@
         <v>12</v>
       </c>
       <c r="AK65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL65" t="n">
         <v>11</v>
@@ -9729,13 +9729,13 @@
         <v>21</v>
       </c>
       <c r="AO65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AR65" t="n">
         <v>2.05</v>
@@ -9785,37 +9785,37 @@
         <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K66" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L66" t="n">
         <v>9.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T66" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U66" t="n">
         <v>1.3</v>
@@ -9830,7 +9830,7 @@
         <v>1.62</v>
       </c>
       <c r="Y66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z66" t="n">
         <v>6</v>
@@ -9842,10 +9842,10 @@
         <v>7.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE66" t="n">
         <v>13</v>
@@ -9854,16 +9854,16 @@
         <v>11</v>
       </c>
       <c r="AG66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH66" t="n">
         <v>81</v>
       </c>
       <c r="AI66" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AJ66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK66" t="n">
         <v>51</v>
@@ -9872,7 +9872,7 @@
         <v>29</v>
       </c>
       <c r="AM66" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN66" t="n">
         <v>81</v>
@@ -9881,16 +9881,16 @@
         <v>67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="67">
@@ -9943,16 +9943,16 @@
         <v>4.75</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
         <v>2.1</v>
@@ -10084,10 +10084,10 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.29</v>
@@ -10207,13 +10207,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
         <v>2.5</v>
@@ -10261,7 +10261,7 @@
         <v>1.73</v>
       </c>
       <c r="Y69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z69" t="n">
         <v>8</v>
@@ -10288,13 +10288,13 @@
         <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI69" t="n">
         <v>800</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK69" t="n">
         <v>21</v>
@@ -10303,7 +10303,7 @@
         <v>15</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN69" t="n">
         <v>41</v>
@@ -10501,7 +10501,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L71" t="n">
         <v>3.6</v>
@@ -10519,10 +10519,10 @@
         <v>2.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S71" t="n">
         <v>5</v>
@@ -10594,10 +10594,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10652,10 +10652,10 @@
         <v>3.2</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O72" t="n">
         <v>1.4</v>
@@ -10664,10 +10664,10 @@
         <v>2.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R72" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S72" t="n">
         <v>4.33</v>
@@ -10676,10 +10676,10 @@
         <v>1.2</v>
       </c>
       <c r="U72" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V72" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W72" t="n">
         <v>1.91</v>
@@ -10706,10 +10706,10 @@
         <v>41</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG72" t="n">
         <v>15</v>
@@ -10738,8 +10738,12 @@
       <c r="AO72" t="n">
         <v>34</v>
       </c>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
+      <c r="AP72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
     </row>
@@ -10775,22 +10779,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H73" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L73" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10799,37 +10803,37 @@
         <v>9.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P73" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R73" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="S73" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T73" t="n">
         <v>1.65</v>
       </c>
       <c r="U73" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X73" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Y73" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z73" t="n">
         <v>7.6</v>
@@ -10838,10 +10842,10 @@
         <v>8.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC73" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD73" t="n">
         <v>21</v>
@@ -10850,7 +10854,7 @@
         <v>9.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG73" t="n">
         <v>17.5</v>
@@ -10862,13 +10866,13 @@
         <v>400</v>
       </c>
       <c r="AJ73" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK73" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM73" t="n">
         <v>200</v>
@@ -11204,10 +11208,10 @@
         <v>5.5</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K76" t="n">
         <v>2.63</v>
@@ -11261,7 +11265,7 @@
         <v>9.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
@@ -11273,7 +11277,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG76" t="n">
         <v>21</v>
@@ -11339,40 +11343,40 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H77" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="J77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L77" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M77" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R77" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S77" t="n">
         <v>2.63</v>
@@ -11387,61 +11391,61 @@
         <v>3.25</v>
       </c>
       <c r="W77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB77" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
       </c>
       <c r="AF77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI77" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AJ77" t="n">
         <v>7</v>
       </c>
       <c r="AK77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL77" t="n">
         <v>9</v>
       </c>
       <c r="AM77" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN77" t="n">
         <v>12</v>
       </c>
       <c r="AO77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
@@ -11632,7 +11636,7 @@
         <v>2.4</v>
       </c>
       <c r="H79" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I79" t="n">
         <v>2.8</v>
@@ -11656,7 +11660,7 @@
         <v>1.39</v>
       </c>
       <c r="P79" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q79" t="n">
         <v>2.15</v>
@@ -11695,7 +11699,7 @@
         <v>25</v>
       </c>
       <c r="AC79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD79" t="n">
         <v>35</v>
@@ -11911,22 +11915,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I81" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K81" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
@@ -11938,25 +11942,25 @@
         <v>1.03</v>
       </c>
       <c r="P81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
         <v>1.11</v>
       </c>
-      <c r="R81" t="n">
+      <c r="V81" t="n">
         <v>6.5</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V81" t="n">
-        <v>7</v>
       </c>
       <c r="W81" t="n">
         <v>1.18</v>
@@ -11971,13 +11975,13 @@
         <v>21</v>
       </c>
       <c r="AA81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC81" t="n">
         <v>13</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>12</v>
       </c>
       <c r="AD81" t="n">
         <v>13</v>
@@ -11986,10 +11990,10 @@
         <v>34</v>
       </c>
       <c r="AF81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH81" t="n">
         <v>19</v>
@@ -11998,22 +12002,22 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM81" t="n">
         <v>41</v>
       </c>
-      <c r="AK81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>51</v>
-      </c>
       <c r="AN81" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO81" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
@@ -12052,13 +12056,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J82" t="n">
         <v>3.25</v>
@@ -12067,7 +12071,7 @@
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -12112,7 +12116,7 @@
         <v>13</v>
       </c>
       <c r="AA82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
         <v>26</v>
@@ -12148,13 +12152,13 @@
         <v>11</v>
       </c>
       <c r="AM82" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO82" t="n">
         <v>29</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>34</v>
       </c>
       <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
@@ -12193,28 +12197,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H83" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J83" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K83" t="n">
         <v>2.1</v>
       </c>
       <c r="L83" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O83" t="n">
         <v>1.3</v>
@@ -12250,22 +12254,22 @@
         <v>7.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA83" t="n">
         <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="n">
         <v>17</v>
       </c>
       <c r="AD83" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
         <v>6.5</v>
@@ -12280,10 +12284,10 @@
         <v>251</v>
       </c>
       <c r="AJ83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -12295,7 +12299,7 @@
         <v>29</v>
       </c>
       <c r="AO83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
@@ -12340,13 +12344,13 @@
         <v>3.3</v>
       </c>
       <c r="I84" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J84" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L84" t="n">
         <v>2.85</v>
@@ -12355,31 +12359,31 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O84" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T84" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U84" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V84" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="W84" t="n">
         <v>1.7</v>
@@ -12388,28 +12392,28 @@
         <v>2.05</v>
       </c>
       <c r="Y84" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z84" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA84" t="n">
         <v>10.75</v>
       </c>
       <c r="AB84" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD84" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE84" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
@@ -12496,43 +12500,43 @@
         <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P85" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R85" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S85" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="T85" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U85" t="n">
         <v>1.38</v>
       </c>
       <c r="V85" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="W85" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X85" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y85" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA85" t="n">
         <v>12</v>
@@ -12547,22 +12551,22 @@
         <v>35</v>
       </c>
       <c r="AE85" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF85" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG85" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH85" t="n">
         <v>55</v>
       </c>
       <c r="AI85" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK85" t="n">
         <v>10</v>
@@ -12577,7 +12581,7 @@
         <v>14.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
@@ -12757,13 +12761,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J87" t="n">
         <v>2.88</v>
@@ -12775,10 +12779,10 @@
         <v>3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O87" t="n">
         <v>1.29</v>
@@ -12787,10 +12791,10 @@
         <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S87" t="n">
         <v>3.4</v>
@@ -12820,13 +12824,13 @@
         <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC87" t="n">
         <v>17</v>
       </c>
       <c r="AD87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE87" t="n">
         <v>10</v>
@@ -12838,7 +12842,7 @@
         <v>15</v>
       </c>
       <c r="AH87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI87" t="n">
         <v>201</v>
@@ -12898,22 +12902,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H88" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I88" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J88" t="n">
         <v>3.85</v>
       </c>
       <c r="K88" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L88" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M88" t="n">
         <v>1.11</v>
@@ -12925,52 +12929,52 @@
         <v>1.47</v>
       </c>
       <c r="P88" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R88" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S88" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T88" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U88" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V88" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W88" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X88" t="n">
         <v>1.65</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA88" t="n">
         <v>11.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD88" t="n">
         <v>50</v>
       </c>
       <c r="AE88" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF88" t="n">
         <v>5.7</v>
@@ -12979,28 +12983,28 @@
         <v>17</v>
       </c>
       <c r="AH88" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI88" t="n">
         <v>900</v>
       </c>
       <c r="AJ88" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AK88" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL88" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM88" t="n">
         <v>25</v>
       </c>
       <c r="AN88" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13329,7 +13333,7 @@
         <v>2.5</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L91" t="n">
         <v>5.5</v>
@@ -13371,7 +13375,7 @@
         <v>1.67</v>
       </c>
       <c r="Y91" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z91" t="n">
         <v>7.5</v>
@@ -13753,13 +13757,13 @@
         <v>2.27</v>
       </c>
       <c r="J94" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K94" t="n">
         <v>2.27</v>
       </c>
       <c r="L94" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
@@ -13786,7 +13790,7 @@
         <v>1.5</v>
       </c>
       <c r="U94" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="V94" t="n">
         <v>3.15</v>
@@ -13798,10 +13802,10 @@
         <v>2.37</v>
       </c>
       <c r="Y94" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z94" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA94" t="n">
         <v>10</v>
@@ -13810,10 +13814,10 @@
         <v>32</v>
       </c>
       <c r="AC94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE94" t="n">
         <v>8.75</v>
@@ -13831,16 +13835,16 @@
         <v>250</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK94" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL94" t="n">
         <v>9.25</v>
       </c>
       <c r="AM94" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN94" t="n">
         <v>16.5</v>
@@ -13939,10 +13943,10 @@
         <v>1.83</v>
       </c>
       <c r="Y95" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA95" t="n">
         <v>9</v>
@@ -14128,7 +14132,7 @@
         <v>20</v>
       </c>
       <c r="AO96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>2.88</v>
@@ -734,19 +734,19 @@
         <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -758,13 +758,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -779,7 +779,7 @@
         <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>12</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
         <v>2.2</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1004,10 +1004,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
         <v>4.5</v>
@@ -1016,16 +1016,16 @@
         <v>1.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ4" t="n">
         <v>8</v>
@@ -1067,22 +1067,22 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1149,16 +1149,16 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
         <v>1.4</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1212,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>4.75</v>
@@ -1275,7 +1275,7 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1290,10 +1290,10 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1308,10 +1308,10 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
         <v>7.5</v>
@@ -1335,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1371,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7">
@@ -1418,7 +1418,7 @@
         <v>5.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
@@ -1427,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1442,7 +1442,7 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1573,7 +1573,7 @@
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1588,10 +1588,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1612,10 +1612,10 @@
         <v>1.91</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1630,22 +1630,22 @@
         <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1657,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>34</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -1855,61 +1855,61 @@
         <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>4.65</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.91</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA10" t="n">
         <v>8.25</v>
@@ -1918,34 +1918,34 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>75</v>
@@ -1954,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1996,61 +1996,61 @@
         <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="V11" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>9.25</v>
@@ -2059,31 +2059,31 @@
         <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2092,10 +2092,10 @@
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2140,7 +2140,7 @@
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J12" t="n">
         <v>2.27</v>
@@ -2149,52 +2149,52 @@
         <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="T12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="U12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V12" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
@@ -2203,37 +2203,37 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="n">
         <v>40</v>
@@ -2299,22 +2299,22 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U13" t="n">
         <v>1.36</v>
@@ -2326,13 +2326,13 @@
         <v>1.62</v>
       </c>
       <c r="X13" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
         <v>8.25</v>
@@ -2341,7 +2341,7 @@
         <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2353,13 +2353,13 @@
         <v>6.9</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2581,16 +2581,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
         <v>2.63</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
@@ -2857,10 +2857,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>1.53</v>
@@ -2902,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>26</v>
@@ -3002,10 +3002,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3133,28 +3133,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>1.83</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.62</v>
@@ -3181,25 +3181,25 @@
         <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
@@ -3208,10 +3208,10 @@
         <v>5.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>101</v>
@@ -3220,19 +3220,19 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>51</v>
@@ -3306,16 +3306,16 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
         <v>2.47</v>
@@ -3450,22 +3450,22 @@
         <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
         <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.29</v>
       </c>
       <c r="U21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V21" t="n">
         <v>2.87</v>
@@ -3474,13 +3474,13 @@
         <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
         <v>10.75</v>
@@ -3492,7 +3492,7 @@
         <v>26</v>
       </c>
       <c r="AD21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="n">
         <v>7.2</v>
@@ -3501,10 +3501,10 @@
         <v>6.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="n">
         <v>600</v>
@@ -3582,22 +3582,22 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
         <v>2.25</v>
@@ -3671,10 +3671,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="23">
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
@@ -3724,7 +3724,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3739,10 +3739,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
@@ -3751,16 +3751,16 @@
         <v>1.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
@@ -3772,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
         <v>19</v>
@@ -3805,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3850,22 +3850,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3880,22 +3880,22 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W24" t="n">
         <v>1.67</v>
@@ -3910,10 +3910,10 @@
         <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>21</v>
@@ -3937,19 +3937,19 @@
         <v>151</v>
       </c>
       <c r="AJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>10</v>
-      </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3991,22 +3991,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -4021,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -4039,16 +4039,16 @@
         <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
         <v>9</v>
@@ -4072,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
         <v>351</v>
@@ -4087,10 +4087,10 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4162,22 +4162,22 @@
         <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W26" t="n">
         <v>2.1</v>
@@ -4201,13 +4201,13 @@
         <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -4222,10 +4222,10 @@
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
         <v>67</v>
@@ -4291,10 +4291,10 @@
         <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4303,10 +4303,10 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
         <v>3.5</v>
@@ -4432,22 +4432,22 @@
         <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -4700,40 +4700,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4778,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
@@ -4841,13 +4841,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4856,7 +4856,7 @@
         <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4913,13 +4913,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
@@ -4986,13 +4986,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
@@ -5001,7 +5001,7 @@
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -5061,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5073,13 +5073,13 @@
         <v>251</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -5268,22 +5268,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5292,22 +5292,22 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
         <v>1.3</v>
@@ -5325,13 +5325,13 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
@@ -5340,13 +5340,13 @@
         <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5361,13 +5361,13 @@
         <v>15</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
         <v>21</v>
@@ -5375,10 +5375,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="35">
@@ -5413,28 +5413,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -5443,16 +5443,16 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U35" t="n">
         <v>1.4</v>
@@ -5470,22 +5470,22 @@
         <v>7.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>9</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
         <v>6.5</v>
@@ -5506,7 +5506,7 @@
         <v>19</v>
       </c>
       <c r="AL35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -5554,34 +5554,34 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
@@ -5626,7 +5626,7 @@
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
         <v>6.5</v>
@@ -5641,10 +5641,10 @@
         <v>351</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
         <v>13</v>
@@ -5713,10 +5713,10 @@
         <v>2.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -5836,22 +5836,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I38" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="J38" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -5874,7 +5874,7 @@
         <v>1.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V38" t="n">
         <v>2.6</v>
@@ -5886,16 +5886,16 @@
         <v>1.93</v>
       </c>
       <c r="Y38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
         <v>21</v>
@@ -5916,22 +5916,22 @@
         <v>60</v>
       </c>
       <c r="AI38" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL38" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM38" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO38" t="n">
         <v>32</v>
@@ -6152,7 +6152,7 @@
         <v>1.33</v>
       </c>
       <c r="U40" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V40" t="n">
         <v>2.75</v>
@@ -6254,10 +6254,10 @@
         <v>2.05</v>
       </c>
       <c r="H41" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -6269,10 +6269,10 @@
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.57</v>
@@ -6293,10 +6293,10 @@
         <v>1.13</v>
       </c>
       <c r="U41" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="V41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
         <v>2.38</v>
@@ -6317,16 +6317,16 @@
         <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
         <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG41" t="n">
         <v>21</v>
@@ -6338,10 +6338,10 @@
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL41" t="n">
         <v>15</v>
@@ -6396,22 +6396,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.2</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6432,13 +6432,13 @@
         <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V42" t="n">
         <v>2.5</v>
@@ -6450,52 +6450,52 @@
         <v>1.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA42" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA42" t="n">
-        <v>9</v>
-      </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
         <v>19</v>
       </c>
       <c r="AD42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
         <v>6</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
         <v>41</v>
@@ -6579,7 +6579,7 @@
         <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V43" t="n">
         <v>2.25</v>
@@ -6642,10 +6642,10 @@
         <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
@@ -6724,10 +6724,10 @@
         <v>1.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W44" t="n">
         <v>1.91</v>
@@ -6754,7 +6754,7 @@
         <v>34</v>
       </c>
       <c r="AE44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF44" t="n">
         <v>6.5</v>
@@ -6772,7 +6772,7 @@
         <v>7.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL44" t="n">
         <v>9.5</v>
@@ -6823,13 +6823,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H45" t="n">
         <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6841,10 +6841,10 @@
         <v>3.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -6865,7 +6865,7 @@
         <v>1.17</v>
       </c>
       <c r="U45" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V45" t="n">
         <v>2.25</v>
@@ -6883,7 +6883,7 @@
         <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
         <v>29</v>
@@ -6913,7 +6913,7 @@
         <v>6.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL45" t="n">
         <v>11</v>
@@ -7097,22 +7097,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I47" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K47" t="n">
         <v>2.27</v>
       </c>
       <c r="L47" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7123,10 +7123,10 @@
         <v>3.9</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S47" t="n">
         <v>2.65</v>
@@ -7137,61 +7137,61 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA47" t="n">
         <v>6.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC47" t="n">
         <v>9.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF47" t="n">
         <v>6.9</v>
       </c>
       <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>13</v>
       </c>
-      <c r="AH47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM47" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="n">
         <v>40</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>37</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7230,19 +7230,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I48" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L48" t="n">
         <v>1.7</v>
@@ -7250,81 +7250,81 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Y48" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB48" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC48" t="n">
         <v>120</v>
       </c>
       <c r="AD48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH48" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM48" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7363,77 +7363,77 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I49" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="J49" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
         <v>2.3</v>
       </c>
       <c r="L49" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P49" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S49" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X49" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="Y49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z49" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB49" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC49" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AD49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>40</v>
@@ -7442,22 +7442,22 @@
         <v>250</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AK49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM49" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AN49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO49" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
@@ -7496,22 +7496,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
         <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -7545,13 +7545,13 @@
         <v>6.9</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA50" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>12</v>
@@ -7563,7 +7563,7 @@
         <v>10.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG50" t="n">
         <v>10.75</v>
@@ -7584,13 +7584,13 @@
         <v>10</v>
       </c>
       <c r="AM50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7791,7 +7791,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -7915,34 +7915,34 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>2.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L53" t="n">
         <v>3.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q53" t="n">
         <v>2.7</v>
@@ -7951,10 +7951,10 @@
         <v>1.44</v>
       </c>
       <c r="S53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T53" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U53" t="n">
         <v>1.62</v>
@@ -7963,10 +7963,10 @@
         <v>2.2</v>
       </c>
       <c r="W53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y53" t="n">
         <v>7</v>
@@ -7981,7 +7981,7 @@
         <v>34</v>
       </c>
       <c r="AC53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD53" t="n">
         <v>41</v>
@@ -7993,7 +7993,7 @@
         <v>6</v>
       </c>
       <c r="AG53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH53" t="n">
         <v>81</v>
@@ -8002,10 +8002,10 @@
         <v>351</v>
       </c>
       <c r="AJ53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL53" t="n">
         <v>11</v>
@@ -8020,10 +8020,10 @@
         <v>41</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8078,10 +8078,10 @@
         <v>10</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.22</v>
@@ -8201,46 +8201,46 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L55" t="n">
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T55" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.62</v>
       </c>
       <c r="U55" t="n">
         <v>1.29</v>
@@ -8249,13 +8249,13 @@
         <v>3.5</v>
       </c>
       <c r="W55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z55" t="n">
         <v>13</v>
@@ -8270,10 +8270,10 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF55" t="n">
         <v>7.5</v>
@@ -8288,10 +8288,10 @@
         <v>101</v>
       </c>
       <c r="AJ55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
@@ -8308,10 +8308,10 @@
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="56">
@@ -8346,22 +8346,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -8400,25 +8400,25 @@
         <v>2</v>
       </c>
       <c r="Y56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA56" t="n">
         <v>12</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>13</v>
       </c>
       <c r="AB56" t="n">
         <v>41</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD56" t="n">
         <v>34</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF56" t="n">
         <v>7</v>
@@ -8436,19 +8436,19 @@
         <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN56" t="n">
         <v>17</v>
       </c>
-      <c r="AN56" t="n">
-        <v>15</v>
-      </c>
       <c r="AO56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H57" t="n">
         <v>3.7</v>
@@ -8511,22 +8511,22 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U57" t="n">
         <v>1.33</v>
@@ -8535,7 +8535,7 @@
         <v>3.25</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
         <v>2.25</v>
@@ -8628,22 +8628,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
@@ -8652,22 +8652,22 @@
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="R58" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U58" t="n">
         <v>1.4</v>
@@ -8676,28 +8676,28 @@
         <v>2.75</v>
       </c>
       <c r="W58" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X58" t="n">
         <v>2.1</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE58" t="n">
         <v>11</v>
@@ -8715,19 +8715,19 @@
         <v>151</v>
       </c>
       <c r="AJ58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL58" t="n">
         <v>10</v>
       </c>
-      <c r="AK58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>11</v>
-      </c>
       <c r="AM58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO58" t="n">
         <v>29</v>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
@@ -8787,10 +8787,10 @@
         <v>3.6</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
         <v>1.2</v>
@@ -8817,7 +8817,7 @@
         <v>3.25</v>
       </c>
       <c r="W59" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X59" t="n">
         <v>2.25</v>
@@ -8916,10 +8916,10 @@
         <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K60" t="n">
         <v>2.38</v>
@@ -8958,7 +8958,7 @@
         <v>3.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X60" t="n">
         <v>2.5</v>
@@ -8973,7 +8973,7 @@
         <v>9</v>
       </c>
       <c r="AB60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC60" t="n">
         <v>15</v>
@@ -9006,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="AM60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN60" t="n">
         <v>23</v>
@@ -9017,10 +9017,10 @@
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="61">
@@ -9055,22 +9055,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="J61" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -9085,73 +9085,73 @@
         <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W61" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="X61" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Y61" t="n">
         <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC61" t="n">
         <v>41</v>
       </c>
-      <c r="AC61" t="n">
-        <v>29</v>
-      </c>
       <c r="AD61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK61" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>9.5</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN61" t="n">
         <v>13</v>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H62" t="n">
         <v>5</v>
@@ -9224,16 +9224,16 @@
         <v>21</v>
       </c>
       <c r="O62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R62" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -9248,7 +9248,7 @@
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X62" t="n">
         <v>2.2</v>
@@ -9341,19 +9341,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K63" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L63" t="n">
         <v>4.33</v>
@@ -9362,40 +9362,40 @@
         <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W63" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.54</v>
       </c>
       <c r="X63" t="n">
         <v>2.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z63" t="n">
         <v>10</v>
@@ -9413,10 +9413,10 @@
         <v>21</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG63" t="n">
         <v>13</v>
@@ -9428,7 +9428,7 @@
         <v>126</v>
       </c>
       <c r="AJ63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK63" t="n">
         <v>23</v>
@@ -9448,10 +9448,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
@@ -9495,10 +9495,10 @@
         <v>3.2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L64" t="n">
         <v>3.6</v>
@@ -9510,40 +9510,40 @@
         <v>13</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R64" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S64" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA64" t="n">
         <v>9</v>
@@ -9558,13 +9558,13 @@
         <v>23</v>
       </c>
       <c r="AE64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG64" t="n">
         <v>13</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>12</v>
       </c>
       <c r="AH64" t="n">
         <v>41</v>
@@ -9573,7 +9573,7 @@
         <v>151</v>
       </c>
       <c r="AJ64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK64" t="n">
         <v>17</v>
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
@@ -9640,13 +9640,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -9679,19 +9679,19 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X65" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y65" t="n">
         <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB65" t="n">
         <v>21</v>
@@ -9700,37 +9700,37 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
       </c>
       <c r="AF65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG65" t="n">
         <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="n">
         <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK65" t="n">
         <v>17</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
         <v>26</v>
@@ -9780,7 +9780,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
@@ -9795,13 +9795,13 @@
         <v>2.6</v>
       </c>
       <c r="L66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -9831,7 +9831,7 @@
         <v>2.1</v>
       </c>
       <c r="X66" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y66" t="n">
         <v>7.5</v>
@@ -9882,7 +9882,7 @@
         <v>67</v>
       </c>
       <c r="AO66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP66" t="n">
         <v>1.28</v>
@@ -9929,67 +9929,67 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I67" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L67" t="n">
         <v>4.75</v>
       </c>
       <c r="M67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T67" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V67" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W67" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Y67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z67" t="n">
         <v>8</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB67" t="n">
         <v>15</v>
@@ -9998,10 +9998,10 @@
         <v>17</v>
       </c>
       <c r="AD67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF67" t="n">
         <v>6.5</v>
@@ -10010,13 +10010,13 @@
         <v>17</v>
       </c>
       <c r="AH67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI67" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK67" t="n">
         <v>21</v>
@@ -10025,7 +10025,7 @@
         <v>15</v>
       </c>
       <c r="AM67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="n">
         <v>41</v>
@@ -10070,13 +10070,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H68" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
@@ -10088,40 +10088,40 @@
         <v>3.2</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R68" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S68" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T68" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W68" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="X68" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
@@ -10130,19 +10130,19 @@
         <v>13</v>
       </c>
       <c r="AA68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
         <v>29</v>
       </c>
       <c r="AC68" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF68" t="n">
         <v>6</v>
@@ -10151,16 +10151,16 @@
         <v>13</v>
       </c>
       <c r="AH68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI68" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL68" t="n">
         <v>10</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
         <v>2.5</v>
@@ -10262,10 +10262,10 @@
         <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Y69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z69" t="n">
         <v>8</v>
@@ -10292,13 +10292,13 @@
         <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI69" t="n">
         <v>800</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK69" t="n">
         <v>21</v>
@@ -10307,7 +10307,7 @@
         <v>15</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN69" t="n">
         <v>41</v>
@@ -10370,13 +10370,13 @@
         <v>5.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N70" t="n">
         <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
         <v>3.75</v>
@@ -10385,13 +10385,13 @@
         <v>1.85</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S70" t="n">
         <v>3</v>
       </c>
       <c r="T70" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U70" t="n">
         <v>1.36</v>
@@ -10400,10 +10400,10 @@
         <v>3</v>
       </c>
       <c r="W70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y70" t="n">
         <v>7</v>
@@ -10496,7 +10496,7 @@
         <v>2.7</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I71" t="n">
         <v>2.8</v>
@@ -10505,22 +10505,22 @@
         <v>3.6</v>
       </c>
       <c r="K71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L71" t="n">
         <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N71" t="n">
         <v>6.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P71" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q71" t="n">
         <v>2.7</v>
@@ -10532,19 +10532,19 @@
         <v>5.5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y71" t="n">
         <v>6.5</v>
@@ -10559,13 +10559,13 @@
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF71" t="n">
         <v>6</v>
@@ -10574,19 +10574,19 @@
         <v>19</v>
       </c>
       <c r="AH71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="n">
         <v>501</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK71" t="n">
         <v>12</v>
       </c>
       <c r="AL71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM71" t="n">
         <v>29</v>
@@ -10598,10 +10598,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10656,28 +10656,28 @@
         <v>3.25</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
         <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P72" t="n">
         <v>2.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R72" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T72" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U72" t="n">
         <v>1.53</v>
@@ -10783,22 +10783,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I73" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K73" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L73" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M73" t="n">
         <v>1.04</v>
@@ -10810,7 +10810,7 @@
         <v>1.21</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q73" t="n">
         <v>1.62</v>
@@ -10825,34 +10825,34 @@
         <v>1.47</v>
       </c>
       <c r="U73" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="V73" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W73" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X73" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Y73" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE73" t="n">
         <v>8.5</v>
@@ -10864,13 +10864,13 @@
         <v>18</v>
       </c>
       <c r="AH73" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI73" t="n">
         <v>600</v>
       </c>
       <c r="AJ73" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK73" t="n">
         <v>50</v>
@@ -10924,22 +10924,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H74" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I74" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J74" t="n">
         <v>5.1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M74" t="n">
         <v>1.02</v>
@@ -10954,7 +10954,7 @@
         <v>5.3</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R74" t="n">
         <v>2.75</v>
@@ -10969,16 +10969,16 @@
         <v>1.23</v>
       </c>
       <c r="V74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="W74" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X74" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z74" t="n">
         <v>45</v>
@@ -10999,7 +10999,7 @@
         <v>10</v>
       </c>
       <c r="AF74" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG74" t="n">
         <v>14</v>
@@ -11020,7 +11020,7 @@
         <v>8.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN74" t="n">
         <v>10.5</v>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H76" t="n">
         <v>5.5</v>
@@ -11218,34 +11218,34 @@
         <v>1.67</v>
       </c>
       <c r="K76" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N76" t="n">
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S76" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T76" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U76" t="n">
         <v>1.25</v>
@@ -11254,16 +11254,16 @@
         <v>3.75</v>
       </c>
       <c r="W76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA76" t="n">
         <v>9.5</v>
@@ -11275,10 +11275,10 @@
         <v>11</v>
       </c>
       <c r="AD76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF76" t="n">
         <v>11</v>
@@ -11290,7 +11290,7 @@
         <v>51</v>
       </c>
       <c r="AI76" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ76" t="n">
         <v>23</v>
@@ -11302,7 +11302,7 @@
         <v>23</v>
       </c>
       <c r="AM76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN76" t="n">
         <v>51</v>
@@ -11312,8 +11312,12 @@
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
+      <c r="AR76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11356,22 +11360,22 @@
         <v>1.36</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K77" t="n">
         <v>2.4</v>
       </c>
       <c r="L77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M77" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
         <v>4.33</v>
@@ -11383,10 +11387,10 @@
         <v>2.2</v>
       </c>
       <c r="S77" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T77" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U77" t="n">
         <v>1.3</v>
@@ -11492,46 +11496,46 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K78" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N78" t="n">
         <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R78" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S78" t="n">
         <v>2.1</v>
       </c>
       <c r="T78" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U78" t="n">
         <v>1.25</v>
@@ -11546,16 +11550,16 @@
         <v>2.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA78" t="n">
         <v>9</v>
       </c>
       <c r="AB78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
         <v>13</v>
@@ -11567,7 +11571,7 @@
         <v>21</v>
       </c>
       <c r="AF78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG78" t="n">
         <v>13</v>
@@ -11582,7 +11586,7 @@
         <v>17</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL78" t="n">
         <v>13</v>
@@ -11591,7 +11595,7 @@
         <v>41</v>
       </c>
       <c r="AN78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO78" t="n">
         <v>26</v>
@@ -11643,22 +11647,22 @@
         <v>3.05</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J79" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K79" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L79" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79" t="n">
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O79" t="n">
         <v>1.39</v>
@@ -11685,16 +11689,16 @@
         <v>2.42</v>
       </c>
       <c r="W79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X79" t="n">
         <v>1.83</v>
       </c>
       <c r="Y79" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z79" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA79" t="n">
         <v>9.5</v>
@@ -11709,13 +11713,13 @@
         <v>35</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF79" t="n">
         <v>6</v>
       </c>
       <c r="AG79" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH79" t="n">
         <v>80</v>
@@ -11727,7 +11731,7 @@
         <v>7.9</v>
       </c>
       <c r="AK79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL79" t="n">
         <v>10.5</v>
@@ -11736,10 +11740,10 @@
         <v>35</v>
       </c>
       <c r="AN79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO79" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="inlineStr"/>
@@ -11787,91 +11791,91 @@
         <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K80" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P80" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T80" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U80" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V80" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="W80" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="Y80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB80" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>12</v>
       </c>
-      <c r="AC80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD80" t="n">
+      <c r="AK80" t="n">
         <v>28</v>
       </c>
-      <c r="AE80" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AG80" t="n">
+      <c r="AL80" t="n">
         <v>17</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>16.5</v>
       </c>
       <c r="AM80" t="n">
         <v>100</v>
@@ -11880,7 +11884,7 @@
         <v>55</v>
       </c>
       <c r="AO80" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
@@ -11919,48 +11923,52 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I81" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N81" t="n">
+        <v>34</v>
+      </c>
       <c r="O81" t="n">
         <v>1.02</v>
       </c>
       <c r="P81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="R81" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S81" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="V81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W81" t="n">
         <v>1.17</v>
@@ -11969,7 +11977,7 @@
         <v>5</v>
       </c>
       <c r="Y81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z81" t="n">
         <v>23</v>
@@ -11990,10 +11998,10 @@
         <v>34</v>
       </c>
       <c r="AF81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
         <v>19</v>
@@ -12008,13 +12016,13 @@
         <v>41</v>
       </c>
       <c r="AL81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM81" t="n">
         <v>51</v>
       </c>
       <c r="AN81" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO81" t="n">
         <v>19</v>
@@ -12074,28 +12082,28 @@
         <v>3.2</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
       </c>
       <c r="O82" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S82" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q82" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S82" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T82" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U82" t="n">
         <v>1.44</v>
@@ -12197,13 +12205,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J83" t="n">
         <v>2.75</v>
@@ -12215,28 +12223,28 @@
         <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
         <v>9.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P83" t="n">
         <v>3.4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R83" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="n">
         <v>3.4</v>
       </c>
       <c r="T83" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U83" t="n">
         <v>1.4</v>
@@ -12254,13 +12262,13 @@
         <v>7.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA83" t="n">
         <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
         <v>17</v>
@@ -12272,10 +12280,10 @@
         <v>9.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH83" t="n">
         <v>51</v>
@@ -12299,7 +12307,7 @@
         <v>29</v>
       </c>
       <c r="AO83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
@@ -12338,52 +12346,52 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J84" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K84" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L84" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R84" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S84" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T84" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U84" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="V84" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="W84" t="n">
         <v>1.7</v>
@@ -12395,7 +12403,7 @@
         <v>9.75</v>
       </c>
       <c r="Z84" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA84" t="n">
         <v>10.75</v>
@@ -12410,10 +12418,10 @@
         <v>32</v>
       </c>
       <c r="AE84" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
@@ -12425,7 +12433,7 @@
         <v>400</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK84" t="n">
         <v>11.25</v>
@@ -12629,13 +12637,13 @@
         <v>4.8</v>
       </c>
       <c r="J86" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K86" t="n">
         <v>2.37</v>
       </c>
       <c r="L86" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
@@ -12647,16 +12655,16 @@
         <v>1.17</v>
       </c>
       <c r="P86" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R86" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S86" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T86" t="n">
         <v>1.57</v>
@@ -12665,7 +12673,7 @@
         <v>1.29</v>
       </c>
       <c r="V86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W86" t="n">
         <v>1.57</v>
@@ -12674,10 +12682,10 @@
         <v>2.25</v>
       </c>
       <c r="Y86" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA86" t="n">
         <v>8</v>
@@ -12686,10 +12694,10 @@
         <v>13</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD86" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE86" t="n">
         <v>9</v>
@@ -12707,22 +12715,22 @@
         <v>250</v>
       </c>
       <c r="AJ86" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK86" t="n">
         <v>32</v>
       </c>
       <c r="AL86" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN86" t="n">
         <v>40</v>
       </c>
       <c r="AO86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
@@ -12761,13 +12769,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J87" t="n">
         <v>2.88</v>
@@ -12779,28 +12787,28 @@
         <v>3.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
         <v>11</v>
       </c>
       <c r="O87" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P87" t="n">
         <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R87" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="n">
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U87" t="n">
         <v>1.4</v>
@@ -12821,7 +12829,7 @@
         <v>11</v>
       </c>
       <c r="AA87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB87" t="n">
         <v>21</v>
@@ -12839,7 +12847,7 @@
         <v>6.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
         <v>41</v>
@@ -12902,109 +12910,109 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H88" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I88" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J88" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K88" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="L88" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M88" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N88" t="n">
         <v>5.8</v>
       </c>
       <c r="O88" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P88" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R88" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S88" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="T88" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="U88" t="n">
         <v>1.57</v>
       </c>
       <c r="V88" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W88" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="X88" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Y88" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z88" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA88" t="n">
         <v>11.25</v>
       </c>
       <c r="AB88" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC88" t="n">
         <v>32</v>
       </c>
       <c r="AD88" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE88" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF88" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AG88" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI88" t="n">
         <v>900</v>
       </c>
       <c r="AJ88" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AK88" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN88" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP88" t="inlineStr"/>
       <c r="AQ88" t="inlineStr"/>
@@ -13043,40 +13051,40 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H89" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I89" t="n">
         <v>2.02</v>
       </c>
       <c r="J89" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="K89" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L89" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M89" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N89" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="O89" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="P89" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="R89" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S89" t="n">
         <v>4.4</v>
@@ -13085,67 +13093,67 @@
         <v>1.13</v>
       </c>
       <c r="U89" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V89" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W89" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="X89" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y89" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Z89" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD89" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE89" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="AF89" t="n">
         <v>6.1</v>
       </c>
       <c r="AG89" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH89" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AI89" t="n">
         <v>101</v>
       </c>
       <c r="AJ89" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="AK89" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AL89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM89" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO89" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13184,105 +13192,109 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I90" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J90" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="K90" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="L90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.8</v>
+      </c>
       <c r="O90" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P90" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="S90" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="T90" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="U90" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V90" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="W90" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X90" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Y90" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB90" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG90" t="n">
         <v>18</v>
       </c>
-      <c r="AC90" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>16</v>
-      </c>
       <c r="AH90" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI90" t="n">
         <v>800</v>
       </c>
       <c r="AJ90" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK90" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AL90" t="n">
         <v>13.5</v>
       </c>
       <c r="AM90" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN90" t="n">
         <v>45</v>
       </c>
       <c r="AO90" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
@@ -13321,7 +13333,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
@@ -13342,7 +13354,7 @@
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O91" t="n">
         <v>1.4</v>
@@ -13484,10 +13496,10 @@
         <v>3.6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
@@ -13496,16 +13508,16 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U92" t="n">
         <v>1.4</v>
@@ -13610,19 +13622,19 @@
         <v>1.65</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J93" t="n">
         <v>2.27</v>
       </c>
       <c r="K93" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M93" t="n">
         <v>1.1</v>
@@ -13634,10 +13646,10 @@
         <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R93" t="n">
         <v>1.62</v>
@@ -13664,7 +13676,7 @@
         <v>5.7</v>
       </c>
       <c r="Z93" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA93" t="n">
         <v>8.5</v>
@@ -13673,7 +13685,7 @@
         <v>12</v>
       </c>
       <c r="AC93" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD93" t="n">
         <v>35</v>
@@ -13682,7 +13694,7 @@
         <v>8.25</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG93" t="n">
         <v>19.5</v>
@@ -13697,16 +13709,16 @@
         <v>11</v>
       </c>
       <c r="AK93" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL93" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN93" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO93" t="n">
         <v>70</v>
@@ -13748,28 +13760,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I94" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J94" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K94" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L94" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O94" t="n">
         <v>1.19</v>
@@ -13790,25 +13802,25 @@
         <v>1.5</v>
       </c>
       <c r="U94" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W94" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X94" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y94" t="n">
         <v>12.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA94" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB94" t="n">
         <v>37</v>
@@ -13817,16 +13829,16 @@
         <v>22</v>
       </c>
       <c r="AD94" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE94" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF94" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG94" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH94" t="n">
         <v>40</v>
@@ -13835,22 +13847,22 @@
         <v>250</v>
       </c>
       <c r="AJ94" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL94" t="n">
         <v>8.75</v>
       </c>
       <c r="AM94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN94" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
@@ -13943,10 +13955,10 @@
         <v>1.83</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z95" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA95" t="n">
         <v>9</v>
@@ -14030,10 +14042,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H96" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I96" t="n">
         <v>2.67</v>
@@ -14054,85 +14066,85 @@
         <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P96" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="Q96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T96" t="n">
         <v>1.57</v>
       </c>
-      <c r="R96" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S96" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T96" t="n">
-        <v>1.5</v>
-      </c>
       <c r="U96" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="V96" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W96" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="X96" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="Y96" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA96" t="n">
         <v>9.25</v>
       </c>
       <c r="AB96" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC96" t="n">
         <v>16</v>
       </c>
       <c r="AD96" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE96" t="n">
         <v>9</v>
       </c>
       <c r="AF96" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH96" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI96" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AJ96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK96" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL96" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM96" t="n">
         <v>32</v>
       </c>
       <c r="AN96" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -716,22 +716,22 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -740,7 +740,7 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
         <v>2.25</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
         <v>2.2</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1004,40 +1004,40 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>23</v>
@@ -1046,10 +1046,10 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1061,10 +1061,10 @@
         <v>451</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1079,10 +1079,10 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1143,16 +1143,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>3.25</v>
@@ -1167,16 +1167,16 @@
         <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1206,13 +1206,13 @@
         <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
         <v>4.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1284,22 +1284,22 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1308,13 +1308,13 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1332,7 +1332,7 @@
         <v>51</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
         <v>6.5</v>
@@ -1350,7 +1350,7 @@
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1359,22 +1359,22 @@
         <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -1427,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1442,7 +1442,7 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1520,10 +1520,10 @@
         <v>1.85</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="8">
@@ -1591,7 +1591,7 @@
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="9">
@@ -1855,61 +1855,61 @@
         <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>4.65</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.22</v>
       </c>
       <c r="L10" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.78</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="U10" t="n">
         <v>1.38</v>
       </c>
       <c r="V10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="X10" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA10" t="n">
         <v>8.25</v>
@@ -1918,43 +1918,43 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK10" t="n">
         <v>25</v>
       </c>
-      <c r="AE10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>27</v>
-      </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1993,19 +1993,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
         <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
         <v>3.2</v>
@@ -2014,25 +2014,25 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
         <v>1.32</v>
@@ -2044,13 +2044,13 @@
         <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
         <v>9.25</v>
@@ -2059,16 +2059,16 @@
         <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -2275,61 +2275,61 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.95</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.7</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="S13" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V13" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="W13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z13" t="n">
         <v>10.5</v>
@@ -2344,40 +2344,40 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="n">
         <v>300</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM13" t="n">
         <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2581,22 +2581,22 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.3</v>
@@ -2605,22 +2605,22 @@
         <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2635,19 +2635,19 @@
         <v>8.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
         <v>201</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>15</v>
@@ -2656,15 +2656,19 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3002,10 +3006,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -3014,16 +3018,16 @@
         <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U18" t="n">
         <v>1.53</v>
@@ -3089,10 +3093,10 @@
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR18" t="n">
         <v>3.85</v>
@@ -3133,34 +3137,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L19" t="n">
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>3.1</v>
@@ -3169,28 +3173,28 @@
         <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3199,19 +3203,19 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>101</v>
@@ -3223,16 +3227,16 @@
         <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO19" t="n">
         <v>51</v>
@@ -3244,10 +3248,10 @@
         <v>1.78</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="20">
@@ -3282,25 +3286,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>10</v>
@@ -3309,19 +3313,19 @@
         <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
         <v>1.44</v>
@@ -3345,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
         <v>15</v>
@@ -3357,7 +3361,7 @@
         <v>8.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG20" t="n">
         <v>34</v>
@@ -3375,7 +3379,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>126</v>
@@ -3423,7 +3427,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -3438,7 +3442,7 @@
         <v>2.12</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3477,19 +3481,19 @@
         <v>1.95</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>37</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD21" t="n">
         <v>37</v>
@@ -3510,7 +3514,7 @@
         <v>600</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3522,10 +3526,10 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3573,7 +3577,7 @@
         <v>6.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K22" t="n">
         <v>2.6</v>
@@ -3582,13 +3586,13 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3600,22 +3604,22 @@
         <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -3627,7 +3631,7 @@
         <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -3636,7 +3640,7 @@
         <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>9.5</v>
@@ -3645,10 +3649,10 @@
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
@@ -3671,10 +3675,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="23">
@@ -3727,28 +3731,28 @@
         <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U23" t="n">
         <v>1.36</v>
@@ -3850,46 +3854,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
         <v>1.4</v>
@@ -3904,19 +3908,19 @@
         <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>29</v>
@@ -3934,22 +3938,22 @@
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>9.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4009,13 +4013,13 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4030,7 +4034,7 @@
         <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U25" t="n">
         <v>1.44</v>
@@ -4135,10 +4139,10 @@
         <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4219,7 +4223,7 @@
         <v>501</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>34</v>
@@ -4303,16 +4307,16 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
@@ -4450,10 +4454,10 @@
         <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4706,13 +4710,13 @@
         <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
         <v>5.5</v>
@@ -4721,25 +4725,25 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4748,10 +4752,10 @@
         <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y30" t="n">
         <v>6.5</v>
@@ -4775,19 +4779,19 @@
         <v>9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI30" t="n">
         <v>351</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -4841,16 +4845,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>1.95</v>
@@ -4889,10 +4893,10 @@
         <v>2.38</v>
       </c>
       <c r="W31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y31" t="n">
         <v>7.5</v>
@@ -4904,16 +4908,16 @@
         <v>11</v>
       </c>
       <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
         <v>26</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>23</v>
       </c>
       <c r="AD31" t="n">
         <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -4931,25 +4935,25 @@
         <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4989,16 +4993,16 @@
         <v>1.85</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>4.5</v>
@@ -5010,28 +5014,28 @@
         <v>10</v>
       </c>
       <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.29</v>
       </c>
-      <c r="P32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
         <v>1.83</v>
@@ -5046,7 +5050,7 @@
         <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -5055,10 +5059,10 @@
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
@@ -5070,7 +5074,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="n">
         <v>11</v>
@@ -5079,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -5136,7 +5140,7 @@
         <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
@@ -5187,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -5196,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5205,7 +5209,7 @@
         <v>7</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5268,28 +5272,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
         <v>1.17</v>
@@ -5310,10 +5314,10 @@
         <v>1.53</v>
       </c>
       <c r="U34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
         <v>1.5</v>
@@ -5322,16 +5326,16 @@
         <v>2.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
@@ -5340,13 +5344,13 @@
         <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5361,10 +5365,10 @@
         <v>15</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>
@@ -5375,10 +5379,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="35">
@@ -5437,22 +5441,22 @@
         <v>11</v>
       </c>
       <c r="O35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.33</v>
       </c>
       <c r="U35" t="n">
         <v>1.4</v>
@@ -5563,7 +5567,7 @@
         <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K36" t="n">
         <v>2.1</v>
@@ -5572,16 +5576,16 @@
         <v>4.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
@@ -5695,22 +5699,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5743,31 +5747,31 @@
         <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
         <v>12</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
       </c>
       <c r="AC37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD37" t="n">
         <v>34</v>
       </c>
-      <c r="AD37" t="n">
-        <v>41</v>
-      </c>
       <c r="AE37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
         <v>6.5</v>
@@ -5779,22 +5783,22 @@
         <v>51</v>
       </c>
       <c r="AI37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL37" t="n">
         <v>9</v>
       </c>
-      <c r="AL37" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN37" t="n">
         <v>17</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>15</v>
       </c>
       <c r="AO37" t="n">
         <v>26</v>
@@ -5836,22 +5840,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
         <v>2.95</v>
       </c>
       <c r="I38" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="J38" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -5859,7 +5863,7 @@
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q38" t="n">
         <v>1.93</v>
@@ -5868,16 +5872,16 @@
         <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U38" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V38" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W38" t="n">
         <v>1.7</v>
@@ -5886,28 +5890,28 @@
         <v>1.93</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z38" t="n">
         <v>11.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE38" t="n">
         <v>8.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG38" t="n">
         <v>13</v>
@@ -5922,19 +5926,19 @@
         <v>9</v>
       </c>
       <c r="AK38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5973,60 +5977,60 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L39" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.26</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V39" t="n">
         <v>2.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y39" t="n">
         <v>6.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA39" t="n">
         <v>8.25</v>
@@ -6035,43 +6039,43 @@
         <v>15.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
         <v>29</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
         <v>6.4</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH39" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="n">
         <v>700</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK39" t="n">
         <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6128,10 +6132,10 @@
         <v>3.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6140,19 +6144,19 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U40" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
         <v>2.75</v>
@@ -6257,61 +6261,61 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K41" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S41" t="n">
         <v>5</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="T41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.57</v>
       </c>
-      <c r="P41" t="n">
+      <c r="V41" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>6</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>2.2</v>
       </c>
-      <c r="W41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="X41" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Y41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -6323,22 +6327,22 @@
         <v>41</v>
       </c>
       <c r="AE41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF41" t="n">
         <v>6</v>
       </c>
-      <c r="AF41" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK41" t="n">
         <v>17</v>
@@ -6356,10 +6360,10 @@
         <v>51</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6438,7 +6442,7 @@
         <v>1.22</v>
       </c>
       <c r="U42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V42" t="n">
         <v>2.5</v>
@@ -6537,13 +6541,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
         <v>2.5</v>
@@ -6552,7 +6556,7 @@
         <v>1.95</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>1.08</v>
@@ -6579,7 +6583,7 @@
         <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
         <v>2.25</v>
@@ -6600,7 +6604,7 @@
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>19</v>
@@ -6682,13 +6686,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
@@ -6697,13 +6701,13 @@
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6712,10 +6716,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
         <v>3.75</v>
@@ -6724,10 +6728,10 @@
         <v>1.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W44" t="n">
         <v>1.91</v>
@@ -6736,7 +6740,7 @@
         <v>1.91</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
         <v>15</v>
@@ -6745,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
         <v>26</v>
@@ -6778,10 +6782,10 @@
         <v>9.5</v>
       </c>
       <c r="AM44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN44" t="n">
         <v>21</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>19</v>
       </c>
       <c r="AO44" t="n">
         <v>29</v>
@@ -6823,13 +6827,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6838,7 +6842,7 @@
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -6865,7 +6869,7 @@
         <v>1.17</v>
       </c>
       <c r="U45" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
         <v>2.25</v>
@@ -6877,16 +6881,16 @@
         <v>1.7</v>
       </c>
       <c r="Y45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z45" t="n">
         <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
         <v>29</v>
@@ -6913,7 +6917,7 @@
         <v>6.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL45" t="n">
         <v>11</v>
@@ -6922,7 +6926,7 @@
         <v>26</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>41</v>
@@ -6993,7 +6997,7 @@
         <v>1.49</v>
       </c>
       <c r="R46" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="S46" t="n">
         <v>2.07</v>
@@ -7004,10 +7008,10 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X46" t="n">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -7117,10 +7121,10 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -7129,18 +7133,18 @@
         <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="T47" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y47" t="n">
         <v>6.2</v>
@@ -7233,19 +7237,19 @@
         <v>11.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I48" t="n">
         <v>1.25</v>
       </c>
       <c r="J48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -7253,7 +7257,7 @@
         <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q48" t="n">
         <v>1.53</v>
@@ -7262,21 +7266,21 @@
         <v>2.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X48" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
         <v>80</v>
@@ -7294,7 +7298,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
         <v>8.25</v>
@@ -7309,13 +7313,13 @@
         <v>400</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AL48" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AM48" t="n">
         <v>6.9</v>
@@ -7363,7 +7367,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>3.85</v>
@@ -7375,7 +7379,7 @@
         <v>4.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L49" t="n">
         <v>2.12</v>
@@ -7383,81 +7387,81 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S49" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="T49" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="X49" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="Y49" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="n">
         <v>12</v>
       </c>
-      <c r="Z49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AB49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC49" t="n">
         <v>29</v>
       </c>
       <c r="AD49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF49" t="n">
         <v>6.8</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AK49" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AL49" t="n">
         <v>7</v>
       </c>
       <c r="AM49" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AN49" t="n">
         <v>10</v>
       </c>
       <c r="AO49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
@@ -7496,101 +7500,101 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J50" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K50" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="S50" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="X50" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="Y50" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
         <v>7.1</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AD50" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL50" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF50" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH50" t="n">
+      <c r="AM50" t="n">
         <v>40</v>
       </c>
-      <c r="AI50" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>37</v>
-      </c>
       <c r="AN50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO50" t="n">
         <v>24</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>27</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7930,7 +7934,7 @@
         <v>1.83</v>
       </c>
       <c r="L53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.13</v>
@@ -7945,10 +7949,10 @@
         <v>2.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S53" t="n">
         <v>6</v>
@@ -7969,13 +7973,13 @@
         <v>1.57</v>
       </c>
       <c r="Y53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z53" t="n">
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB53" t="n">
         <v>34</v>
@@ -7984,7 +7988,7 @@
         <v>34</v>
       </c>
       <c r="AD53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE53" t="n">
         <v>6</v>
@@ -8090,16 +8094,16 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U54" t="n">
         <v>1.36</v>
@@ -8201,10 +8205,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
         <v>2.9</v>
@@ -8213,49 +8217,49 @@
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S55" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z55" t="n">
         <v>13</v>
@@ -8270,10 +8274,10 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="n">
         <v>7.5</v>
@@ -8282,16 +8286,16 @@
         <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
         <v>101</v>
       </c>
       <c r="AJ55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
@@ -8308,10 +8312,10 @@
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="56">
@@ -8346,13 +8350,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J56" t="n">
         <v>4</v>
@@ -8364,10 +8368,10 @@
         <v>2.63</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8376,16 +8380,16 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U56" t="n">
         <v>1.36</v>
@@ -8406,13 +8410,13 @@
         <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB56" t="n">
         <v>41</v>
       </c>
       <c r="AC56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD56" t="n">
         <v>34</v>
@@ -8436,16 +8440,16 @@
         <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL56" t="n">
         <v>9</v>
       </c>
       <c r="AM56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO56" t="n">
         <v>26</v>
@@ -8487,22 +8491,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H57" t="n">
         <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8535,19 +8539,19 @@
         <v>3.25</v>
       </c>
       <c r="W57" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB57" t="n">
         <v>17</v>
@@ -8559,7 +8563,7 @@
         <v>21</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
         <v>7</v>
@@ -8580,7 +8584,7 @@
         <v>21</v>
       </c>
       <c r="AL57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM57" t="n">
         <v>41</v>
@@ -8628,19 +8632,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L58" t="n">
         <v>3.2</v>
@@ -8658,10 +8662,10 @@
         <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R58" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S58" t="n">
         <v>3.25</v>
@@ -8676,10 +8680,10 @@
         <v>2.75</v>
       </c>
       <c r="W58" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X58" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y58" t="n">
         <v>9.5</v>
@@ -8700,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
@@ -8712,10 +8716,10 @@
         <v>41</v>
       </c>
       <c r="AI58" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK58" t="n">
         <v>13</v>
@@ -8769,22 +8773,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K59" t="n">
         <v>2.3</v>
       </c>
       <c r="L59" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8826,13 +8830,13 @@
         <v>10</v>
       </c>
       <c r="Z59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA59" t="n">
         <v>9</v>
       </c>
       <c r="AB59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
         <v>15</v>
@@ -8910,13 +8914,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J60" t="n">
         <v>2.6</v>
@@ -8925,7 +8929,7 @@
         <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8958,13 +8962,13 @@
         <v>3.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z60" t="n">
         <v>12</v>
@@ -9003,16 +9007,16 @@
         <v>21</v>
       </c>
       <c r="AL60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM60" t="n">
         <v>41</v>
       </c>
       <c r="AN60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9236,10 +9240,10 @@
         <v>2.88</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U62" t="n">
         <v>1.22</v>
@@ -9248,10 +9252,10 @@
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
@@ -9263,7 +9267,7 @@
         <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC62" t="n">
         <v>10</v>
@@ -9275,10 +9279,10 @@
         <v>21</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
@@ -9507,7 +9511,7 @@
         <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O64" t="n">
         <v>1.25</v>
@@ -9631,13 +9635,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
         <v>2.88</v>
@@ -9679,10 +9683,10 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y65" t="n">
         <v>10</v>
@@ -9700,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9709,16 +9713,16 @@
         <v>6.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI65" t="n">
         <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK65" t="n">
         <v>17</v>
@@ -9736,10 +9740,10 @@
         <v>26</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AR65" t="n">
         <v>2.05</v>
@@ -9780,28 +9784,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K66" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L66" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -9810,10 +9814,10 @@
         <v>4.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
         <v>2.5</v>
@@ -9822,28 +9826,28 @@
         <v>1.5</v>
       </c>
       <c r="U66" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W66" t="n">
         <v>2.1</v>
       </c>
       <c r="X66" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y66" t="n">
         <v>7.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC66" t="n">
         <v>11</v>
@@ -9852,10 +9856,10 @@
         <v>29</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
         <v>23</v>
@@ -9867,7 +9871,7 @@
         <v>900</v>
       </c>
       <c r="AJ66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK66" t="n">
         <v>51</v>
@@ -9876,25 +9880,25 @@
         <v>29</v>
       </c>
       <c r="AM66" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="n">
         <v>67</v>
       </c>
-      <c r="AO66" t="n">
-        <v>51</v>
-      </c>
       <c r="AP66" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="67">
@@ -9929,22 +9933,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K67" t="n">
         <v>2.05</v>
       </c>
       <c r="L67" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
@@ -9953,22 +9957,22 @@
         <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U67" t="n">
         <v>1.5</v>
@@ -9980,7 +9984,7 @@
         <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y67" t="n">
         <v>6</v>
@@ -10007,7 +10011,7 @@
         <v>6.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH67" t="n">
         <v>67</v>
@@ -10025,7 +10029,7 @@
         <v>15</v>
       </c>
       <c r="AM67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN67" t="n">
         <v>41</v>
@@ -10073,43 +10077,43 @@
         <v>2.88</v>
       </c>
       <c r="H68" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L68" t="n">
         <v>3.2</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P68" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R68" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U68" t="n">
         <v>1.44</v>
@@ -10118,13 +10122,13 @@
         <v>2.63</v>
       </c>
       <c r="W68" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X68" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z68" t="n">
         <v>13</v>
@@ -10148,7 +10152,7 @@
         <v>6</v>
       </c>
       <c r="AG68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH68" t="n">
         <v>51</v>
@@ -10157,7 +10161,7 @@
         <v>251</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK68" t="n">
         <v>12</v>
@@ -10166,7 +10170,7 @@
         <v>10</v>
       </c>
       <c r="AM68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN68" t="n">
         <v>21</v>
@@ -10211,28 +10215,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K69" t="n">
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
         <v>1.36</v>
@@ -10262,22 +10266,22 @@
         <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y69" t="n">
         <v>6</v>
       </c>
       <c r="Z69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA69" t="n">
         <v>9</v>
       </c>
       <c r="AB69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC69" t="n">
         <v>15</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>17</v>
       </c>
       <c r="AD69" t="n">
         <v>34</v>
@@ -10286,25 +10290,25 @@
         <v>8.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH69" t="n">
         <v>67</v>
       </c>
       <c r="AI69" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ69" t="n">
         <v>11</v>
       </c>
       <c r="AK69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM69" t="n">
         <v>51</v>
@@ -10313,7 +10317,7 @@
         <v>41</v>
       </c>
       <c r="AO69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP69" t="inlineStr"/>
       <c r="AQ69" t="inlineStr"/>
@@ -10385,7 +10389,7 @@
         <v>1.85</v>
       </c>
       <c r="R70" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
         <v>3</v>
@@ -10400,10 +10404,10 @@
         <v>3</v>
       </c>
       <c r="W70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y70" t="n">
         <v>7</v>
@@ -10638,16 +10642,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>2.9</v>
       </c>
       <c r="I72" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
@@ -10680,10 +10684,10 @@
         <v>1.2</v>
       </c>
       <c r="U72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V72" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W72" t="n">
         <v>1.91</v>
@@ -10692,28 +10696,28 @@
         <v>1.8</v>
       </c>
       <c r="Y72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD72" t="n">
         <v>41</v>
       </c>
       <c r="AE72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG72" t="n">
         <v>15</v>
@@ -10725,19 +10729,19 @@
         <v>351</v>
       </c>
       <c r="AJ72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL72" t="n">
         <v>10</v>
       </c>
       <c r="AM72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN72" t="n">
         <v>23</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>21</v>
       </c>
       <c r="AO72" t="n">
         <v>34</v>
@@ -11230,16 +11234,16 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S76" t="n">
         <v>2.25</v>
@@ -11313,10 +11317,10 @@
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="77">
@@ -11351,7 +11355,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H77" t="n">
         <v>5</v>
@@ -11369,10 +11373,10 @@
         <v>1.83</v>
       </c>
       <c r="M77" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
         <v>1.2</v>
@@ -11381,10 +11385,10 @@
         <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="n">
         <v>2.63</v>
@@ -11393,10 +11397,10 @@
         <v>1.44</v>
       </c>
       <c r="U77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V77" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W77" t="n">
         <v>2</v>
@@ -11405,10 +11409,10 @@
         <v>1.73</v>
       </c>
       <c r="Y77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA77" t="n">
         <v>21</v>
@@ -11496,67 +11500,67 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I78" t="n">
         <v>3.3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K78" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L78" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="R78" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S78" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T78" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB78" t="n">
         <v>17</v>
@@ -11565,13 +11569,13 @@
         <v>13</v>
       </c>
       <c r="AD78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF78" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG78" t="n">
         <v>13</v>
@@ -11580,13 +11584,13 @@
         <v>34</v>
       </c>
       <c r="AI78" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL78" t="n">
         <v>13</v>
@@ -11598,7 +11602,7 @@
         <v>23</v>
       </c>
       <c r="AO78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
@@ -11680,7 +11684,7 @@
         <v>3.7</v>
       </c>
       <c r="T79" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U79" t="n">
         <v>1.5</v>
@@ -11692,22 +11696,22 @@
         <v>1.87</v>
       </c>
       <c r="X79" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z79" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA79" t="n">
         <v>9.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD79" t="n">
         <v>35</v>
@@ -11728,13 +11732,13 @@
         <v>700</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK79" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL79" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM79" t="n">
         <v>35</v>
@@ -11827,7 +11831,7 @@
         <v>1.44</v>
       </c>
       <c r="V80" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W80" t="n">
         <v>2</v>
@@ -11878,10 +11882,10 @@
         <v>17</v>
       </c>
       <c r="AM80" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO80" t="n">
         <v>65</v>
@@ -12205,61 +12209,61 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J83" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K83" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L83" t="n">
         <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W83" t="n">
         <v>1.83</v>
       </c>
-      <c r="S83" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U83" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V83" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X83" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z83" t="n">
         <v>9.5</v>
@@ -12268,19 +12272,19 @@
         <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD83" t="n">
         <v>29</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG83" t="n">
         <v>15</v>
@@ -12289,13 +12293,13 @@
         <v>51</v>
       </c>
       <c r="AI83" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -12346,28 +12350,28 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H84" t="n">
         <v>3.25</v>
       </c>
       <c r="I84" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
         <v>2.12</v>
       </c>
       <c r="L84" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O84" t="n">
         <v>1.3</v>
@@ -12376,19 +12380,19 @@
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T84" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U84" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V84" t="n">
         <v>2.8</v>
@@ -12403,25 +12407,25 @@
         <v>9.75</v>
       </c>
       <c r="Z84" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB84" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC84" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD84" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE84" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG84" t="n">
         <v>13</v>
@@ -12436,19 +12440,19 @@
         <v>8</v>
       </c>
       <c r="AK84" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL84" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN84" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -12631,61 +12635,61 @@
         <v>1.6</v>
       </c>
       <c r="H86" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I86" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J86" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="K86" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L86" t="n">
         <v>4.8</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z86" t="n">
         <v>9</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P86" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S86" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V86" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X86" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA86" t="n">
         <v>8</v>
@@ -12694,28 +12698,28 @@
         <v>13</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF86" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG86" t="n">
         <v>13.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ86" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK86" t="n">
         <v>32</v>
@@ -12724,7 +12728,7 @@
         <v>15.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN86" t="n">
         <v>40</v>
@@ -13051,37 +13055,37 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>2.85</v>
       </c>
       <c r="I89" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="J89" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="K89" t="n">
         <v>1.78</v>
       </c>
       <c r="L89" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M89" t="n">
         <v>1.14</v>
       </c>
       <c r="N89" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O89" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P89" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R89" t="n">
         <v>1.33</v>
@@ -13099,22 +13103,22 @@
         <v>1.98</v>
       </c>
       <c r="W89" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="X89" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Y89" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Z89" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA89" t="n">
         <v>15.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC89" t="n">
         <v>55</v>
@@ -13123,7 +13127,7 @@
         <v>90</v>
       </c>
       <c r="AE89" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AF89" t="n">
         <v>6.1</v>
@@ -13141,16 +13145,16 @@
         <v>4.7</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AL89" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM89" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO89" t="n">
         <v>60</v>
@@ -13201,13 +13205,13 @@
         <v>3.6</v>
       </c>
       <c r="J90" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K90" t="n">
         <v>1.82</v>
       </c>
       <c r="L90" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="M90" t="n">
         <v>1.12</v>
@@ -13249,7 +13253,7 @@
         <v>5.7</v>
       </c>
       <c r="Z90" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA90" t="n">
         <v>9.25</v>
@@ -13258,13 +13262,13 @@
         <v>22</v>
       </c>
       <c r="AC90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD90" t="n">
         <v>40</v>
       </c>
       <c r="AE90" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF90" t="n">
         <v>5.7</v>
@@ -13279,13 +13283,13 @@
         <v>800</v>
       </c>
       <c r="AJ90" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK90" t="n">
         <v>17.5</v>
       </c>
       <c r="AL90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM90" t="n">
         <v>55</v>
@@ -13354,7 +13358,7 @@
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
         <v>1.4</v>
@@ -13508,16 +13512,16 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R92" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S92" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T92" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U92" t="n">
         <v>1.4</v>
@@ -13772,7 +13776,7 @@
         <v>3.4</v>
       </c>
       <c r="K94" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L94" t="n">
         <v>2.65</v>
@@ -13808,16 +13812,16 @@
         <v>3.15</v>
       </c>
       <c r="W94" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X94" t="n">
         <v>2.35</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z94" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA94" t="n">
         <v>10.75</v>
@@ -13904,16 +13908,16 @@
         <v>1.27</v>
       </c>
       <c r="H95" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I95" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
         <v>1.7</v>
       </c>
       <c r="K95" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="L95" t="n">
         <v>7</v>
@@ -13949,10 +13953,10 @@
         <v>3.45</v>
       </c>
       <c r="W95" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X95" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y95" t="n">
         <v>9</v>
@@ -13964,13 +13968,13 @@
         <v>9</v>
       </c>
       <c r="AB95" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC95" t="n">
         <v>10.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE95" t="n">
         <v>9.5</v>
@@ -13982,19 +13986,19 @@
         <v>21</v>
       </c>
       <c r="AH95" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="n">
         <v>600</v>
       </c>
       <c r="AJ95" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL95" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM95" t="n">
         <v>200</v>
@@ -14042,97 +14046,97 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H96" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S96" t="n">
         <v>2.67</v>
       </c>
-      <c r="J96" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N96" t="n">
+      <c r="T96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA96" t="n">
         <v>9</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P96" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R96" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S96" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T96" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V96" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X96" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y96" t="n">
+      <c r="AB96" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG96" t="n">
         <v>12</v>
       </c>
-      <c r="Z96" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC96" t="n">
+      <c r="AH96" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK96" t="n">
         <v>16</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>17</v>
       </c>
       <c r="AL96" t="n">
         <v>10</v>
@@ -14141,10 +14145,10 @@
         <v>32</v>
       </c>
       <c r="AN96" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO96" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -716,22 +716,22 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
@@ -875,16 +875,16 @@
         <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>6.5</v>
@@ -917,10 +917,10 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>13</v>
@@ -935,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
@@ -986,7 +986,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>3.75</v>
@@ -1004,10 +1004,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1022,13 +1022,13 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>29</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>2.25</v>
@@ -1131,7 +1131,7 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
@@ -1218,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1412,10 +1412,10 @@
         <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.6</v>
@@ -1433,16 +1433,16 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1514,10 +1514,10 @@
         <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR7" t="n">
         <v>4.3</v>
@@ -1582,22 +1582,22 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U8" t="n">
         <v>1.44</v>
@@ -1855,19 +1855,19 @@
         <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K10" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1876,10 +1876,10 @@
         <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q10" t="n">
         <v>1.93</v>
@@ -1888,16 +1888,16 @@
         <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V10" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="W10" t="n">
         <v>1.93</v>
@@ -1906,10 +1906,10 @@
         <v>1.78</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA10" t="n">
         <v>8.25</v>
@@ -1921,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>7.2</v>
@@ -1930,7 +1930,7 @@
         <v>7.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>90</v>
@@ -1939,10 +1939,10 @@
         <v>800</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>15.5</v>
@@ -1993,97 +1993,97 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="V11" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
         <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2092,10 +2092,10 @@
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2140,7 +2140,7 @@
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
         <v>2.27</v>
@@ -2179,19 +2179,19 @@
         <v>1.36</v>
       </c>
       <c r="V12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="W12" t="n">
         <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>8</v>
@@ -2221,16 +2221,16 @@
         <v>400</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
         <v>37</v>
@@ -2275,46 +2275,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
         <v>1.33</v>
@@ -2323,13 +2323,13 @@
         <v>3.05</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>10.5</v>
@@ -2341,16 +2341,16 @@
         <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
@@ -2362,22 +2362,22 @@
         <v>300</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2416,109 +2416,109 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA14" t="n">
         <v>8.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
@@ -2578,7 +2578,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
@@ -2587,10 +2587,10 @@
         <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
         <v>2.5</v>
@@ -2599,22 +2599,22 @@
         <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
@@ -2629,19 +2629,19 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>17</v>
-      </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -2659,15 +2659,15 @@
         <v>41</v>
       </c>
       <c r="AO15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="16">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2717,7 +2717,7 @@
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2756,13 +2756,13 @@
         <v>2.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -2792,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
         <v>9</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
@@ -2867,22 +2867,22 @@
         <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U17" t="n">
         <v>1.62</v>
@@ -2891,22 +2891,22 @@
         <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y17" t="n">
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>26</v>
@@ -2921,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>81</v>
@@ -2936,22 +2936,22 @@
         <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3286,46 +3286,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.44</v>
@@ -3349,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>15</v>
@@ -3361,34 +3361,34 @@
         <v>8.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI20" t="n">
         <v>101</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3427,103 +3427,103 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.2</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K21" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L21" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X21" t="n">
         <v>2.02</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.95</v>
       </c>
       <c r="Y21" t="n">
         <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN21" t="n">
         <v>22</v>
@@ -3574,25 +3574,25 @@
         <v>4.75</v>
       </c>
       <c r="I22" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3604,10 +3604,10 @@
         <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="n">
         <v>1.29</v>
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
         <v>8</v>
@@ -3675,10 +3675,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="23">
@@ -3731,28 +3731,28 @@
         <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
         <v>1.36</v>
@@ -3872,16 +3872,16 @@
         <v>2.87</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.93</v>
@@ -3893,7 +3893,7 @@
         <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U24" t="n">
         <v>1.4</v>
@@ -4013,13 +4013,13 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4034,7 +4034,7 @@
         <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
         <v>1.44</v>
@@ -4136,22 +4136,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -4160,16 +4160,16 @@
         <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S26" t="n">
         <v>3.5</v>
@@ -4208,7 +4208,7 @@
         <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
@@ -4232,7 +4232,7 @@
         <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="n">
         <v>51</v>
@@ -4286,7 +4286,7 @@
         <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K27" t="n">
         <v>2.25</v>
@@ -4451,7 +4451,7 @@
         <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
         <v>4.33</v>
@@ -4592,7 +4592,7 @@
         <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4704,58 +4704,58 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.33</v>
       </c>
-      <c r="P30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y30" t="n">
         <v>6.5</v>
@@ -4776,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>7.5</v>
@@ -4785,13 +4785,13 @@
         <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>351</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -4845,85 +4845,85 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y31" t="n">
         <v>8</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
@@ -4932,7 +4932,7 @@
         <v>301</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
@@ -4947,7 +4947,7 @@
         <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="n">
         <v>1.78</v>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>2.6</v>
@@ -5014,16 +5014,16 @@
         <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="n">
         <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S32" t="n">
         <v>3.5</v>
@@ -5047,22 +5047,22 @@
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
         <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
@@ -5083,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -5131,13 +5131,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
         <v>2.5</v>
@@ -5149,10 +5149,10 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -5161,10 +5161,10 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
         <v>2.63</v>
@@ -5188,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -5200,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5230,10 +5230,10 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO33" t="n">
         <v>29</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>34</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5293,7 +5293,7 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
         <v>1.17</v>
@@ -5314,10 +5314,10 @@
         <v>1.53</v>
       </c>
       <c r="U34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.5</v>
@@ -5326,7 +5326,7 @@
         <v>2.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
         <v>15</v>
@@ -5347,7 +5347,7 @@
         <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5379,10 +5379,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="35">
@@ -6255,28 +6255,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>2.88</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6318,7 +6318,7 @@
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>21</v>
@@ -6330,22 +6330,22 @@
         <v>6.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
         <v>81</v>
       </c>
       <c r="AI41" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
         <v>15</v>
@@ -6360,10 +6360,10 @@
         <v>51</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6704,10 +6704,10 @@
         <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6716,10 +6716,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
         <v>3.75</v>
@@ -6827,13 +6827,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H45" t="n">
         <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6842,13 +6842,13 @@
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -6857,40 +6857,40 @@
         <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>12</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
         <v>29</v>
@@ -6899,13 +6899,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>67</v>
@@ -6917,25 +6917,25 @@
         <v>6.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL45" t="n">
         <v>11</v>
       </c>
       <c r="AM45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN45" t="n">
         <v>26</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -6972,32 +6972,32 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="K46" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="R46" t="n">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
         <v>2.07</v>
@@ -7014,55 +7014,55 @@
         <v>2.37</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB46" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AD46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE46" t="n">
         <v>15</v>
       </c>
-      <c r="AE46" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF46" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>32</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ46" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AN46" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7101,74 +7101,74 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I47" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="J47" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="K47" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S47" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T47" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="X47" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AA47" t="n">
         <v>6.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD47" t="n">
         <v>19.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
@@ -7180,22 +7180,22 @@
         <v>350</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN47" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7234,16 +7234,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="K48" t="n">
         <v>2.4</v>
@@ -7274,19 +7274,19 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X48" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB48" t="n">
         <v>350</v>
@@ -7295,19 +7295,19 @@
         <v>120</v>
       </c>
       <c r="AD48" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="n">
         <v>13</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
         <v>400</v>
@@ -7316,19 +7316,19 @@
         <v>6.6</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AM48" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AN48" t="n">
         <v>8.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7639,13 +7639,13 @@
         <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
         <v>2.88</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
         <v>3.6</v>
@@ -7681,16 +7681,16 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y51" t="n">
         <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
         <v>9</v>
@@ -7705,10 +7705,10 @@
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -8067,7 +8067,7 @@
         <v>1.25</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I54" t="n">
         <v>11</v>
@@ -8079,7 +8079,7 @@
         <v>2.5</v>
       </c>
       <c r="L54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -8094,37 +8094,37 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W54" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="X54" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Y54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB54" t="n">
         <v>7.5</v>
@@ -8136,13 +8136,13 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF54" t="n">
         <v>10</v>
       </c>
-      <c r="AF54" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH54" t="n">
         <v>81</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
@@ -8223,10 +8223,10 @@
         <v>3.25</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O55" t="n">
         <v>1.14</v>
@@ -8235,10 +8235,10 @@
         <v>5.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S55" t="n">
         <v>2.2</v>
@@ -8262,7 +8262,7 @@
         <v>12</v>
       </c>
       <c r="Z55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA55" t="n">
         <v>9.5</v>
@@ -8289,7 +8289,7 @@
         <v>29</v>
       </c>
       <c r="AI55" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="n">
         <v>15</v>
@@ -8312,10 +8312,10 @@
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="56">
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
@@ -8365,7 +8365,7 @@
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8380,10 +8380,10 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S56" t="n">
         <v>3</v>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="Y56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z56" t="n">
         <v>19</v>
@@ -8422,7 +8422,7 @@
         <v>34</v>
       </c>
       <c r="AE56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF56" t="n">
         <v>7</v>
@@ -8443,7 +8443,7 @@
         <v>9.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM56" t="n">
         <v>17</v>
@@ -8452,7 +8452,7 @@
         <v>15</v>
       </c>
       <c r="AO56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8515,22 +8515,22 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U57" t="n">
         <v>1.33</v>
@@ -8638,16 +8638,16 @@
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
@@ -8656,40 +8656,40 @@
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA58" t="n">
         <v>10</v>
@@ -8704,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
@@ -8716,10 +8716,10 @@
         <v>41</v>
       </c>
       <c r="AI58" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK58" t="n">
         <v>13</v>
@@ -8728,13 +8728,13 @@
         <v>10</v>
       </c>
       <c r="AM58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO58" t="n">
         <v>26</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>29</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8776,7 +8776,7 @@
         <v>2.05</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
         <v>3.4</v>
@@ -8791,10 +8791,10 @@
         <v>3.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
         <v>1.2</v>
@@ -8827,7 +8827,7 @@
         <v>2.25</v>
       </c>
       <c r="Y59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z59" t="n">
         <v>11</v>
@@ -8869,10 +8869,10 @@
         <v>12</v>
       </c>
       <c r="AM59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO59" t="n">
         <v>29</v>
@@ -8917,10 +8917,10 @@
         <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J60" t="n">
         <v>2.6</v>
@@ -8929,7 +8929,7 @@
         <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8962,13 +8962,13 @@
         <v>3.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
         <v>12</v>
@@ -9007,16 +9007,16 @@
         <v>21</v>
       </c>
       <c r="AL60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM60" t="n">
         <v>41</v>
       </c>
       <c r="AN60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO60" t="n">
         <v>26</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>29</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9101,19 +9101,19 @@
         <v>1.4</v>
       </c>
       <c r="U61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X61" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z61" t="n">
         <v>26</v>
@@ -9125,13 +9125,13 @@
         <v>51</v>
       </c>
       <c r="AC61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD61" t="n">
         <v>41</v>
       </c>
       <c r="AE61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF61" t="n">
         <v>7.5</v>
@@ -9140,13 +9140,13 @@
         <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI61" t="n">
         <v>201</v>
       </c>
       <c r="AJ61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK61" t="n">
         <v>8.5</v>
@@ -9204,7 +9204,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H62" t="n">
         <v>5</v>
@@ -9219,7 +9219,7 @@
         <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -9240,10 +9240,10 @@
         <v>2.88</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U62" t="n">
         <v>1.22</v>
@@ -9252,10 +9252,10 @@
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
@@ -9267,7 +9267,7 @@
         <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC62" t="n">
         <v>10</v>
@@ -9279,16 +9279,16 @@
         <v>21</v>
       </c>
       <c r="AF62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
       </c>
       <c r="AI62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ62" t="n">
         <v>26</v>
@@ -9490,46 +9490,46 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L64" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P64" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U64" t="n">
         <v>1.36</v>
@@ -9553,7 +9553,7 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC64" t="n">
         <v>17</v>
@@ -9577,10 +9577,10 @@
         <v>151</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL64" t="n">
         <v>12</v>
@@ -9589,7 +9589,7 @@
         <v>34</v>
       </c>
       <c r="AN64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO64" t="n">
         <v>29</v>
@@ -9635,13 +9635,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
         <v>2.88</v>
@@ -9650,7 +9650,7 @@
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -9665,10 +9665,10 @@
         <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S65" t="n">
         <v>2.63</v>
@@ -9683,16 +9683,16 @@
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X65" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y65" t="n">
         <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
         <v>9.5</v>
@@ -9704,25 +9704,25 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
       </c>
       <c r="AF65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="n">
         <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK65" t="n">
         <v>17</v>
@@ -9731,7 +9731,7 @@
         <v>11</v>
       </c>
       <c r="AM65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN65" t="n">
         <v>21</v>
@@ -9740,10 +9740,10 @@
         <v>26</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AR65" t="n">
         <v>2.05</v>
@@ -9784,13 +9784,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H66" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I66" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
         <v>1.67</v>
@@ -9805,25 +9805,25 @@
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P66" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S66" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U66" t="n">
         <v>1.29</v>
@@ -9841,7 +9841,7 @@
         <v>7.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA66" t="n">
         <v>9.5</v>
@@ -9856,7 +9856,7 @@
         <v>29</v>
       </c>
       <c r="AE66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF66" t="n">
         <v>11</v>
@@ -9889,16 +9889,16 @@
         <v>67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AR66" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="67">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H67" t="n">
         <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K67" t="n">
         <v>2.05</v>
@@ -9963,10 +9963,10 @@
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S67" t="n">
         <v>4</v>
@@ -10011,13 +10011,13 @@
         <v>6.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH67" t="n">
         <v>67</v>
       </c>
       <c r="AI67" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ67" t="n">
         <v>10</v>
@@ -10074,28 +10074,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="n">
         <v>2.05</v>
       </c>
       <c r="L68" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -10104,10 +10104,10 @@
         <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S68" t="n">
         <v>3.75</v>
@@ -10128,25 +10128,25 @@
         <v>1.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA68" t="n">
         <v>11</v>
       </c>
       <c r="AB68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD68" t="n">
         <v>34</v>
       </c>
       <c r="AE68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF68" t="n">
         <v>6</v>
@@ -10158,16 +10158,16 @@
         <v>51</v>
       </c>
       <c r="AI68" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM68" t="n">
         <v>23</v>
@@ -10215,112 +10215,116 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I69" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S69" t="n">
         <v>5</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P69" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S69" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T69" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="U69" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V69" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="X69" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="Y69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>13</v>
       </c>
       <c r="AC69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="n">
         <v>900</v>
       </c>
       <c r="AJ69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK69" t="n">
         <v>23</v>
       </c>
       <c r="AL69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="n">
         <v>51</v>
       </c>
       <c r="AN69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO69" t="n">
         <v>51</v>
       </c>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
+      <c r="AP69" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.88</v>
+      </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
     </row>
@@ -10398,7 +10402,7 @@
         <v>1.36</v>
       </c>
       <c r="U70" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V70" t="n">
         <v>3</v>
@@ -10497,22 +10501,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>2.9</v>
       </c>
       <c r="I71" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>1.11</v>
@@ -10539,7 +10543,7 @@
         <v>1.14</v>
       </c>
       <c r="U71" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V71" t="n">
         <v>2.2</v>
@@ -10551,19 +10555,19 @@
         <v>1.62</v>
       </c>
       <c r="Y71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA71" t="n">
         <v>11</v>
       </c>
       <c r="AB71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
@@ -10584,16 +10588,16 @@
         <v>501</v>
       </c>
       <c r="AJ71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN71" t="n">
         <v>29</v>
@@ -10602,10 +10606,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10672,19 +10676,19 @@
         <v>2.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R72" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S72" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U72" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V72" t="n">
         <v>2.5</v>
@@ -10793,7 +10797,7 @@
         <v>4.4</v>
       </c>
       <c r="I73" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J73" t="n">
         <v>1.88</v>
@@ -10802,7 +10806,7 @@
         <v>2.37</v>
       </c>
       <c r="L73" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M73" t="n">
         <v>1.04</v>
@@ -10814,7 +10818,7 @@
         <v>1.21</v>
       </c>
       <c r="P73" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q73" t="n">
         <v>1.62</v>
@@ -10829,10 +10833,10 @@
         <v>1.47</v>
       </c>
       <c r="U73" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="V73" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W73" t="n">
         <v>1.83</v>
@@ -10841,16 +10845,16 @@
         <v>1.87</v>
       </c>
       <c r="Y73" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z73" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA73" t="n">
         <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC73" t="n">
         <v>11</v>
@@ -10865,16 +10869,16 @@
         <v>8.75</v>
       </c>
       <c r="AG73" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH73" t="n">
         <v>75</v>
       </c>
       <c r="AI73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK73" t="n">
         <v>50</v>
@@ -10889,7 +10893,7 @@
         <v>75</v>
       </c>
       <c r="AO73" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -11234,16 +11238,16 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S76" t="n">
         <v>2.25</v>
@@ -11252,7 +11256,7 @@
         <v>1.57</v>
       </c>
       <c r="U76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V76" t="n">
         <v>3.75</v>
@@ -11317,10 +11321,10 @@
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -11355,22 +11359,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H77" t="n">
         <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
         <v>2.4</v>
       </c>
       <c r="L77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
@@ -11397,7 +11401,7 @@
         <v>1.44</v>
       </c>
       <c r="U77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V77" t="n">
         <v>3.25</v>
@@ -11409,10 +11413,10 @@
         <v>1.73</v>
       </c>
       <c r="Y77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA77" t="n">
         <v>21</v>
@@ -11427,37 +11431,37 @@
         <v>51</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF77" t="n">
         <v>10</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH77" t="n">
         <v>67</v>
       </c>
       <c r="AI77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL77" t="n">
         <v>9</v>
       </c>
       <c r="AM77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN77" t="n">
         <v>12</v>
       </c>
       <c r="AO77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
@@ -11509,25 +11513,25 @@
         <v>3.3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L78" t="n">
         <v>3.6</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="O78" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q78" t="n">
         <v>1.36</v>
@@ -11536,25 +11540,25 @@
         <v>3</v>
       </c>
       <c r="S78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U78" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V78" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W78" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X78" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z78" t="n">
         <v>13</v>
@@ -11572,22 +11576,22 @@
         <v>17</v>
       </c>
       <c r="AE78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
         <v>81</v>
       </c>
       <c r="AJ78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK78" t="n">
         <v>23</v>
@@ -11654,16 +11658,16 @@
         <v>2.82</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K79" t="n">
         <v>1.95</v>
       </c>
       <c r="L79" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M79" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N79" t="n">
         <v>6.3</v>
@@ -11684,7 +11688,7 @@
         <v>3.7</v>
       </c>
       <c r="T79" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U79" t="n">
         <v>1.5</v>
@@ -11696,13 +11700,13 @@
         <v>1.87</v>
       </c>
       <c r="X79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z79" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA79" t="n">
         <v>9.5</v>
@@ -11711,7 +11715,7 @@
         <v>26</v>
       </c>
       <c r="AC79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD79" t="n">
         <v>35</v>
@@ -11720,7 +11724,7 @@
         <v>6.3</v>
       </c>
       <c r="AF79" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG79" t="n">
         <v>15</v>
@@ -11732,13 +11736,13 @@
         <v>700</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL79" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM79" t="n">
         <v>35</v>
@@ -11786,52 +11790,52 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
         <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L80" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S80" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T80" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="U80" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V80" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W80" t="n">
         <v>2</v>
@@ -11840,31 +11844,31 @@
         <v>1.72</v>
       </c>
       <c r="Y80" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z80" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AA80" t="n">
         <v>8.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC80" t="n">
         <v>14</v>
       </c>
       <c r="AD80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AG80" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH80" t="n">
         <v>100</v>
@@ -11873,7 +11877,7 @@
         <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK80" t="n">
         <v>28</v>
@@ -11882,13 +11886,13 @@
         <v>17</v>
       </c>
       <c r="AM80" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN80" t="n">
         <v>60</v>
       </c>
       <c r="AO80" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
@@ -12068,28 +12072,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K82" t="n">
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M82" t="n">
         <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.29</v>
@@ -12098,10 +12102,10 @@
         <v>3.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S82" t="n">
         <v>3.4</v>
@@ -12110,10 +12114,10 @@
         <v>1.3</v>
       </c>
       <c r="U82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V82" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W82" t="n">
         <v>1.73</v>
@@ -12122,7 +12126,7 @@
         <v>2</v>
       </c>
       <c r="Y82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z82" t="n">
         <v>15</v>
@@ -12137,10 +12141,10 @@
         <v>23</v>
       </c>
       <c r="AD82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF82" t="n">
         <v>6</v>
@@ -12155,16 +12159,16 @@
         <v>201</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL82" t="n">
         <v>10</v>
       </c>
       <c r="AM82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN82" t="n">
         <v>21</v>
@@ -12632,70 +12636,70 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H86" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L86" t="n">
         <v>4.85</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.8</v>
-      </c>
       <c r="M86" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q86" t="n">
         <v>1.57</v>
       </c>
       <c r="R86" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S86" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T86" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U86" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V86" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W86" t="n">
         <v>1.62</v>
       </c>
       <c r="X86" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y86" t="n">
         <v>8.75</v>
       </c>
       <c r="Z86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA86" t="n">
         <v>8</v>
       </c>
       <c r="AB86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC86" t="n">
         <v>11.5</v>
@@ -12704,13 +12708,13 @@
         <v>20</v>
       </c>
       <c r="AE86" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF86" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG86" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH86" t="n">
         <v>50</v>
@@ -12719,19 +12723,19 @@
         <v>300</v>
       </c>
       <c r="AJ86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK86" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM86" t="n">
         <v>90</v>
       </c>
       <c r="AN86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO86" t="n">
         <v>37</v>
@@ -12803,10 +12807,10 @@
         <v>3.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R87" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S87" t="n">
         <v>3.4</v>
@@ -12839,10 +12843,10 @@
         <v>21</v>
       </c>
       <c r="AC87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE87" t="n">
         <v>10</v>
@@ -12851,10 +12855,10 @@
         <v>6.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI87" t="n">
         <v>201</v>
@@ -12863,7 +12867,7 @@
         <v>10</v>
       </c>
       <c r="AK87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL87" t="n">
         <v>12</v>
@@ -13196,28 +13200,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K90" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L90" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="M90" t="n">
         <v>1.12</v>
       </c>
       <c r="N90" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O90" t="n">
         <v>1.5</v>
@@ -13250,19 +13254,19 @@
         <v>1.62</v>
       </c>
       <c r="Y90" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z90" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AA90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD90" t="n">
         <v>40</v>
@@ -13271,34 +13275,34 @@
         <v>6.1</v>
       </c>
       <c r="AF90" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG90" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI90" t="n">
         <v>800</v>
       </c>
       <c r="AJ90" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AK90" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL90" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM90" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO90" t="n">
         <v>55</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>60</v>
       </c>
       <c r="AP90" t="inlineStr"/>
       <c r="AQ90" t="inlineStr"/>
@@ -13512,10 +13516,10 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R92" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S92" t="n">
         <v>3.25</v>
@@ -13905,22 +13909,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H95" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I95" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="J95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K95" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="L95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
@@ -13953,61 +13957,61 @@
         <v>3.45</v>
       </c>
       <c r="W95" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="X95" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Y95" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AA95" t="n">
         <v>9</v>
       </c>
       <c r="AB95" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AC95" t="n">
         <v>10.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE95" t="n">
         <v>9.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO95" t="n">
         <v>80</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>75</v>
       </c>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
@@ -14052,61 +14056,61 @@
         <v>3.35</v>
       </c>
       <c r="I96" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J96" t="n">
         <v>2.95</v>
       </c>
       <c r="K96" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O96" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P96" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R96" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S96" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="T96" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="U96" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="V96" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="W96" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X96" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Y96" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA96" t="n">
         <v>9.25</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>9</v>
       </c>
       <c r="AB96" t="n">
         <v>24</v>
@@ -14115,28 +14119,28 @@
         <v>18</v>
       </c>
       <c r="AD96" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE96" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF96" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH96" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI96" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ96" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AK96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL96" t="n">
         <v>10</v>
@@ -14145,10 +14149,10 @@
         <v>32</v>
       </c>
       <c r="AN96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO96" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -698,55 +698,55 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
@@ -791,10 +791,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -923,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1022,22 +1022,22 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>23</v>
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
@@ -1058,31 +1058,31 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>13</v>
       </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1137,10 +1137,10 @@
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1275,7 +1275,7 @@
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1314,7 +1314,7 @@
         <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1350,7 +1350,7 @@
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1421,7 +1421,7 @@
         <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1451,19 +1451,19 @@
         <v>1.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
@@ -1484,19 +1484,19 @@
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1514,16 +1514,16 @@
         <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -1576,10 +1576,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -2569,7 +2569,7 @@
         <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
         <v>5.5</v>
@@ -2581,10 +2581,10 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.57</v>
@@ -2593,10 +2593,10 @@
         <v>2.35</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2605,13 +2605,13 @@
         <v>3.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>8.5</v>
@@ -2664,10 +2664,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="16">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2732,10 +2732,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>2.75</v>
@@ -2750,28 +2750,28 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD16" t="n">
         <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -2789,19 +2789,19 @@
         <v>151</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3000,7 +3000,7 @@
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
@@ -3018,16 +3018,16 @@
         <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U18" t="n">
         <v>1.53</v>
@@ -3093,10 +3093,10 @@
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>3.85</v>
@@ -3137,19 +3137,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L19" t="n">
         <v>4.33</v>
@@ -3194,7 +3194,7 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3227,7 +3227,7 @@
         <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
@@ -3248,7 +3248,7 @@
         <v>1.78</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AS19" t="n">
         <v>1.15</v>
@@ -3286,28 +3286,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
         <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
         <v>11</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -3316,10 +3316,10 @@
         <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
@@ -3334,19 +3334,19 @@
         <v>2.63</v>
       </c>
       <c r="W20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y20" t="n">
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
         <v>7</v>
@@ -3361,10 +3361,10 @@
         <v>8.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="n">
         <v>151</v>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>4.75</v>
@@ -3580,16 +3580,16 @@
         <v>1.91</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3610,7 +3610,7 @@
         <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V22" t="n">
         <v>3.5</v>
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>8</v>
@@ -3658,7 +3658,7 @@
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
@@ -3675,10 +3675,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3713,13 +3713,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
@@ -3728,7 +3728,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3743,10 +3743,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
@@ -3755,16 +3755,16 @@
         <v>1.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
@@ -3776,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>19</v>
@@ -3809,7 +3809,7 @@
         <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3854,22 +3854,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3878,10 +3878,10 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
         <v>1.93</v>
@@ -3896,28 +3896,28 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>23</v>
@@ -3944,7 +3944,7 @@
         <v>8.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>9.5</v>
@@ -3953,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -4166,16 +4166,16 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4199,7 +4199,7 @@
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -4211,7 +4211,7 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -4220,7 +4220,7 @@
         <v>67</v>
       </c>
       <c r="AI26" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -4286,13 +4286,13 @@
         <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="n">
         <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4334,7 +4334,7 @@
         <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
@@ -4355,7 +4355,7 @@
         <v>8.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>81</v>
@@ -4451,13 +4451,13 @@
         <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4559,13 +4559,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4574,7 +4574,7 @@
         <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4583,16 +4583,16 @@
         <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
         <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4655,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
         <v>34</v>
@@ -4664,10 +4664,10 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4704,61 +4704,61 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.3</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="n">
         <v>7.5</v>
@@ -4767,37 +4767,37 @@
         <v>8.5</v>
       </c>
       <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
         <v>13</v>
       </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>51</v>
@@ -4845,28 +4845,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
@@ -4878,19 +4878,19 @@
         <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
         <v>1.83</v>
@@ -4899,7 +4899,7 @@
         <v>1.83</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
         <v>13</v>
@@ -4908,7 +4908,7 @@
         <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
         <v>23</v>
@@ -4917,7 +4917,7 @@
         <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -4932,19 +4932,19 @@
         <v>301</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>34</v>
@@ -4990,28 +4990,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -5023,7 +5023,7 @@
         <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
         <v>3.5</v>
@@ -5047,16 +5047,16 @@
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
@@ -5077,13 +5077,13 @@
         <v>301</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -5131,46 +5131,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U33" t="n">
         <v>1.33</v>
@@ -5191,16 +5191,16 @@
         <v>11</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
@@ -5209,7 +5209,7 @@
         <v>7</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5221,13 +5221,13 @@
         <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN33" t="n">
         <v>26</v>
@@ -5272,46 +5272,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U34" t="n">
         <v>1.3</v>
@@ -5320,55 +5320,55 @@
         <v>3.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
       </c>
       <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE34" t="n">
         <v>15</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
         <v>17</v>
@@ -5379,10 +5379,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="35">
@@ -5420,37 +5420,37 @@
         <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
         <v>2.63</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
         <v>3.5</v>
@@ -5459,22 +5459,22 @@
         <v>1.29</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V35" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
         <v>9</v>
@@ -5483,13 +5483,13 @@
         <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF35" t="n">
         <v>6.5</v>
@@ -5501,7 +5501,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ35" t="n">
         <v>11</v>
@@ -5516,10 +5516,10 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5561,25 +5561,25 @@
         <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
         <v>4.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5588,10 +5588,10 @@
         <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>3.75</v>
@@ -5615,7 +5615,7 @@
         <v>6.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
@@ -5630,7 +5630,7 @@
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
         <v>6.5</v>
@@ -6132,10 +6132,10 @@
         <v>3.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6144,16 +6144,16 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U40" t="n">
         <v>1.4</v>
@@ -6273,10 +6273,10 @@
         <v>4.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6285,16 +6285,16 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U41" t="n">
         <v>1.57</v>
@@ -6360,10 +6360,10 @@
         <v>51</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6436,10 +6436,10 @@
         <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U42" t="n">
         <v>1.5</v>
@@ -6646,10 +6646,10 @@
         <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6827,16 +6827,16 @@
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.88</v>
       </c>
-      <c r="H45" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I45" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
@@ -6851,16 +6851,16 @@
         <v>6.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S45" t="n">
         <v>5.5</v>
@@ -6881,13 +6881,13 @@
         <v>1.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z45" t="n">
         <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
         <v>29</v>
@@ -6902,7 +6902,7 @@
         <v>6</v>
       </c>
       <c r="AF45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG45" t="n">
         <v>19</v>
@@ -6926,16 +6926,16 @@
         <v>29</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO45" t="n">
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7234,19 +7234,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I48" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J48" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L48" t="n">
         <v>1.65</v>
@@ -7266,42 +7266,42 @@
         <v>2.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="T48" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="X48" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AA48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB48" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC48" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
@@ -7313,16 +7313,16 @@
         <v>400</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AM48" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AN48" t="n">
         <v>8.5</v>
@@ -7777,13 +7777,13 @@
         <v>1.42</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K52" t="n">
         <v>2.4</v>
@@ -7922,16 +7922,16 @@
         <v>2.9</v>
       </c>
       <c r="H53" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L53" t="n">
         <v>3.5</v>
@@ -7961,10 +7961,10 @@
         <v>1.13</v>
       </c>
       <c r="U53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W53" t="n">
         <v>2.25</v>
@@ -7991,7 +7991,7 @@
         <v>51</v>
       </c>
       <c r="AE53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF53" t="n">
         <v>6</v>
@@ -8009,7 +8009,7 @@
         <v>6</v>
       </c>
       <c r="AK53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL53" t="n">
         <v>11</v>
@@ -8073,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K54" t="n">
         <v>2.5</v>
@@ -8094,16 +8094,16 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U54" t="n">
         <v>1.33</v>
@@ -8205,13 +8205,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
@@ -8220,7 +8220,7 @@
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -8259,7 +8259,7 @@
         <v>2.63</v>
       </c>
       <c r="Y55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z55" t="n">
         <v>15</v>
@@ -8268,7 +8268,7 @@
         <v>9.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC55" t="n">
         <v>15</v>
@@ -8301,13 +8301,13 @@
         <v>11</v>
       </c>
       <c r="AM55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO55" t="n">
         <v>21</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>23</v>
       </c>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -8491,22 +8491,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H57" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8515,10 +8515,10 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q57" t="n">
         <v>1.65</v>
@@ -8533,28 +8533,28 @@
         <v>1.5</v>
       </c>
       <c r="U57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA57" t="n">
         <v>9</v>
       </c>
-      <c r="Z57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
         <v>15</v>
@@ -8563,37 +8563,37 @@
         <v>21</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>7</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
         <v>41</v>
       </c>
       <c r="AI57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ57" t="n">
         <v>13</v>
       </c>
       <c r="AK57" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO57" t="n">
         <v>26</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>29</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -8632,46 +8632,46 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U58" t="n">
         <v>1.36</v>
@@ -8680,37 +8680,37 @@
         <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z58" t="n">
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
         <v>21</v>
       </c>
       <c r="AD58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
         <v>41</v>
@@ -8725,7 +8725,7 @@
         <v>13</v>
       </c>
       <c r="AL58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM58" t="n">
         <v>23</v>
@@ -8734,7 +8734,7 @@
         <v>19</v>
       </c>
       <c r="AO58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8773,61 +8773,61 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I59" t="n">
         <v>3.6</v>
       </c>
-      <c r="I59" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>3.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R59" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X59" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
         <v>11</v>
@@ -8836,7 +8836,7 @@
         <v>9</v>
       </c>
       <c r="AB59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
         <v>15</v>
@@ -8845,10 +8845,10 @@
         <v>21</v>
       </c>
       <c r="AE59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG59" t="n">
         <v>12</v>
@@ -8860,13 +8860,13 @@
         <v>126</v>
       </c>
       <c r="AJ59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL59" t="n">
         <v>13</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>12</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
@@ -8879,8 +8879,12 @@
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8914,85 +8918,85 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I60" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J60" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L60" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O60" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R60" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X60" t="n">
         <v>2.38</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V60" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X60" t="n">
-        <v>2.5</v>
       </c>
       <c r="Y60" t="n">
         <v>11</v>
       </c>
       <c r="Z60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
         <v>12</v>
       </c>
-      <c r="AA60" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB60" t="n">
+      <c r="AD60" t="n">
         <v>19</v>
       </c>
-      <c r="AC60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>21</v>
-      </c>
       <c r="AE60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>34</v>
@@ -9001,30 +9005,30 @@
         <v>101</v>
       </c>
       <c r="AJ60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL60" t="n">
         <v>15</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>12</v>
       </c>
       <c r="AM60" t="n">
         <v>41</v>
       </c>
       <c r="AN60" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="61">
@@ -9059,13 +9063,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="J61" t="n">
         <v>5</v>
@@ -9074,7 +9078,7 @@
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -9125,7 +9129,7 @@
         <v>51</v>
       </c>
       <c r="AC61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="n">
         <v>41</v>
@@ -9140,7 +9144,7 @@
         <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="n">
         <v>201</v>
@@ -9204,22 +9208,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J62" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K62" t="n">
         <v>2.75</v>
       </c>
       <c r="L62" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -9252,10 +9256,10 @@
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
@@ -9267,10 +9271,10 @@
         <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD62" t="n">
         <v>19</v>
@@ -9279,28 +9283,28 @@
         <v>21</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
         <v>41</v>
       </c>
       <c r="AI62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK62" t="n">
         <v>41</v>
       </c>
       <c r="AL62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN62" t="n">
         <v>41</v>
@@ -9345,22 +9349,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J63" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="n">
         <v>2.38</v>
       </c>
       <c r="L63" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>1.03</v>
@@ -9369,22 +9373,22 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S63" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T63" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U63" t="n">
         <v>1.3</v>
@@ -9408,7 +9412,7 @@
         <v>8.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
         <v>13</v>
@@ -9490,61 +9494,61 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K64" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L64" t="n">
         <v>3.75</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U64" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X64" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="Y64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z64" t="n">
         <v>11</v>
@@ -9556,37 +9560,37 @@
         <v>19</v>
       </c>
       <c r="AC64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG64" t="n">
         <v>12</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>13</v>
       </c>
       <c r="AH64" t="n">
         <v>41</v>
       </c>
       <c r="AI64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ64" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL64" t="n">
         <v>12</v>
       </c>
       <c r="AM64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN64" t="n">
         <v>26</v>
@@ -9597,10 +9601,10 @@
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="65">
@@ -9650,7 +9654,7 @@
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -9677,22 +9681,22 @@
         <v>1.44</v>
       </c>
       <c r="U65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V65" t="n">
         <v>3.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y65" t="n">
         <v>10</v>
       </c>
       <c r="Z65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA65" t="n">
         <v>9.5</v>
@@ -9704,7 +9708,7 @@
         <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9716,13 +9720,13 @@
         <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI65" t="n">
         <v>126</v>
       </c>
       <c r="AJ65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK65" t="n">
         <v>17</v>
@@ -9743,7 +9747,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AR65" t="n">
         <v>2.05</v>
@@ -9805,7 +9809,7 @@
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O66" t="n">
         <v>1.17</v>
@@ -9895,10 +9899,10 @@
         <v>3.9</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="67">
@@ -9933,28 +9937,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H67" t="n">
         <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
         <v>2.6</v>
       </c>
       <c r="K67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -9963,34 +9967,34 @@
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U67" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V67" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA67" t="n">
         <v>9</v>
@@ -10002,10 +10006,10 @@
         <v>17</v>
       </c>
       <c r="AD67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF67" t="n">
         <v>6.5</v>
@@ -10014,10 +10018,10 @@
         <v>17</v>
       </c>
       <c r="AH67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI67" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ67" t="n">
         <v>10</v>
@@ -10029,10 +10033,10 @@
         <v>15</v>
       </c>
       <c r="AM67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO67" t="n">
         <v>41</v>
@@ -10074,13 +10078,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J68" t="n">
         <v>3.75</v>
@@ -10089,7 +10093,7 @@
         <v>2.05</v>
       </c>
       <c r="L68" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
         <v>1.07</v>
@@ -10098,10 +10102,10 @@
         <v>9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P68" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
         <v>2.1</v>
@@ -10134,7 +10138,7 @@
         <v>15</v>
       </c>
       <c r="AA68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB68" t="n">
         <v>34</v>
@@ -10170,10 +10174,10 @@
         <v>9.5</v>
       </c>
       <c r="AM68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO68" t="n">
         <v>29</v>
@@ -10215,19 +10219,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K69" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L69" t="n">
         <v>6</v>
@@ -10239,34 +10243,34 @@
         <v>6.5</v>
       </c>
       <c r="O69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X69" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U69" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V69" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W69" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.53</v>
       </c>
       <c r="Y69" t="n">
         <v>5</v>
@@ -10275,10 +10279,10 @@
         <v>7</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC69" t="n">
         <v>19</v>
@@ -10287,7 +10291,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF69" t="n">
         <v>6.5</v>
@@ -10296,13 +10300,13 @@
         <v>23</v>
       </c>
       <c r="AH69" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI69" t="n">
         <v>900</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK69" t="n">
         <v>23</v>
@@ -10320,10 +10324,10 @@
         <v>51</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10402,7 +10406,7 @@
         <v>1.36</v>
       </c>
       <c r="U70" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V70" t="n">
         <v>3</v>
@@ -10501,79 +10505,79 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H71" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
         <v>1.91</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R71" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S71" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U71" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X71" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z71" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF71" t="n">
         <v>6</v>
@@ -10582,34 +10586,34 @@
         <v>19</v>
       </c>
       <c r="AH71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI71" t="n">
         <v>501</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM71" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO71" t="n">
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10646,16 +10650,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>2.9</v>
       </c>
       <c r="I72" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
@@ -10664,10 +10668,10 @@
         <v>3.25</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O72" t="n">
         <v>1.4</v>
@@ -10676,22 +10680,22 @@
         <v>2.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R72" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T72" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U72" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V72" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="W72" t="n">
         <v>1.91</v>
@@ -10706,7 +10710,7 @@
         <v>13</v>
       </c>
       <c r="AA72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB72" t="n">
         <v>29</v>
@@ -10718,10 +10722,10 @@
         <v>41</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF72" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG72" t="n">
         <v>15</v>
@@ -10733,16 +10737,16 @@
         <v>351</v>
       </c>
       <c r="AJ72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL72" t="n">
         <v>10</v>
       </c>
       <c r="AM72" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN72" t="n">
         <v>23</v>
@@ -10791,109 +10795,109 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H73" t="n">
         <v>4.4</v>
       </c>
       <c r="I73" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J73" t="n">
         <v>1.88</v>
       </c>
       <c r="K73" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L73" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R73" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S73" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="T73" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="U73" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="V73" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="W73" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="X73" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="Y73" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="Z73" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AA73" t="n">
         <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AC73" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD73" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF73" t="n">
         <v>8.75</v>
       </c>
       <c r="AG73" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH73" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI73" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK73" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO73" t="n">
         <v>50</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>60</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -10932,22 +10936,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="H74" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="I74" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="J74" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="K74" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="L74" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="n">
         <v>1.02</v>
@@ -10956,85 +10960,85 @@
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P74" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R74" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="S74" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T74" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U74" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V74" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="W74" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="X74" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="Y74" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA74" t="n">
         <v>24</v>
       </c>
-      <c r="Z74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>18</v>
-      </c>
       <c r="AB74" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AC74" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AD74" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AE74" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM74" t="n">
         <v>9.75</v>
       </c>
-      <c r="AG74" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>12</v>
-      </c>
       <c r="AN74" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO74" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
@@ -11073,22 +11077,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="H75" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J75" t="n">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="K75" t="n">
         <v>2.57</v>
       </c>
       <c r="L75" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>1.02</v>
@@ -11097,85 +11101,85 @@
         <v>10</v>
       </c>
       <c r="O75" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P75" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R75" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="S75" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T75" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U75" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V75" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="W75" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="X75" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD75" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AE75" t="n">
         <v>10</v>
       </c>
       <c r="AF75" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI75" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ75" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK75" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AL75" t="n">
         <v>8.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AN75" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
@@ -11214,19 +11218,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H76" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
         <v>1.67</v>
       </c>
       <c r="K76" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L76" t="n">
         <v>7.5</v>
@@ -11235,7 +11239,7 @@
         <v>1.02</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O76" t="n">
         <v>1.14</v>
@@ -11244,19 +11248,19 @@
         <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R76" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S76" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T76" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V76" t="n">
         <v>3.75</v>
@@ -11268,7 +11272,7 @@
         <v>1.8</v>
       </c>
       <c r="Y76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
         <v>7</v>
@@ -11277,7 +11281,7 @@
         <v>9.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
@@ -11286,13 +11290,13 @@
         <v>26</v>
       </c>
       <c r="AE76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH76" t="n">
         <v>51</v>
@@ -11321,10 +11325,10 @@
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="77">
@@ -11359,22 +11363,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I77" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L77" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
@@ -11401,67 +11405,67 @@
         <v>1.44</v>
       </c>
       <c r="U77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V77" t="n">
         <v>3.25</v>
       </c>
       <c r="W77" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X77" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y77" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA77" t="n">
         <v>19</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AB77" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC77" t="n">
         <v>41</v>
       </c>
-      <c r="AA77" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>51</v>
-      </c>
       <c r="AD77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE77" t="n">
         <v>13</v>
       </c>
       <c r="AF77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI77" t="n">
         <v>700</v>
       </c>
       <c r="AJ77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK77" t="n">
         <v>7</v>
       </c>
-      <c r="AK77" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AL77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN77" t="n">
         <v>12</v>
       </c>
       <c r="AO77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
@@ -11504,22 +11508,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I78" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J78" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K78" t="n">
         <v>2.6</v>
       </c>
       <c r="L78" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
         <v>26</v>
@@ -11546,31 +11550,31 @@
         <v>1.83</v>
       </c>
       <c r="U78" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V78" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W78" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y78" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB78" t="n">
         <v>15</v>
       </c>
-      <c r="Z78" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>17</v>
-      </c>
       <c r="AC78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD78" t="n">
         <v>17</v>
@@ -11582,10 +11586,10 @@
         <v>10</v>
       </c>
       <c r="AG78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI78" t="n">
         <v>81</v>
@@ -11594,19 +11598,19 @@
         <v>21</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM78" t="n">
         <v>41</v>
       </c>
       <c r="AN78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
@@ -11790,109 +11794,109 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J80" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="K80" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L80" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="O80" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P80" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T80" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U80" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V80" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W80" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X80" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Y80" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AA80" t="n">
         <v>8.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD80" t="n">
         <v>30</v>
       </c>
       <c r="AE80" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF80" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AG80" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ80" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK80" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL80" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN80" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO80" t="n">
         <v>60</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>70</v>
       </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
@@ -12072,52 +12076,52 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M82" t="n">
         <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T82" t="n">
         <v>1.29</v>
       </c>
-      <c r="P82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>2</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S82" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U82" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V82" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W82" t="n">
         <v>1.73</v>
@@ -12126,19 +12130,19 @@
         <v>2</v>
       </c>
       <c r="Y82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA82" t="n">
         <v>11</v>
       </c>
       <c r="AB82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD82" t="n">
         <v>29</v>
@@ -12162,13 +12166,13 @@
         <v>9</v>
       </c>
       <c r="AK82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN82" t="n">
         <v>21</v>
@@ -12354,109 +12358,109 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
         <v>2.3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K84" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L84" t="n">
         <v>2.87</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="O84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T84" t="n">
         <v>1.3</v>
       </c>
-      <c r="P84" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S84" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U84" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V84" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="W84" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X84" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z84" t="n">
         <v>15.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB84" t="n">
         <v>37</v>
       </c>
       <c r="AC84" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD84" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE84" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AG84" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI84" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK84" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AL84" t="n">
         <v>9</v>
       </c>
       <c r="AM84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN84" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -12495,52 +12499,52 @@
         </is>
       </c>
       <c r="G85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.3</v>
       </c>
-      <c r="H85" t="n">
-        <v>3.45</v>
-      </c>
       <c r="I85" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K85" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O85" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P85" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R85" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S85" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T85" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U85" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V85" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="W85" t="n">
         <v>1.65</v>
@@ -12549,55 +12553,55 @@
         <v>2.1</v>
       </c>
       <c r="Y85" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB85" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC85" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE85" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AF85" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AG85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH85" t="n">
         <v>55</v>
       </c>
       <c r="AI85" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK85" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AL85" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN85" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AO85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
@@ -12777,31 +12781,31 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H87" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J87" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
         <v>2.1</v>
       </c>
       <c r="L87" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P87" t="n">
         <v>3.5</v>
@@ -12816,7 +12820,7 @@
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U87" t="n">
         <v>1.4</v>
@@ -12831,16 +12835,16 @@
         <v>2</v>
       </c>
       <c r="Y87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC87" t="n">
         <v>19</v>
@@ -12855,31 +12859,31 @@
         <v>6.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI87" t="n">
         <v>201</v>
       </c>
       <c r="AJ87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK87" t="n">
         <v>15</v>
       </c>
       <c r="AL87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN87" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO87" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP87" t="inlineStr"/>
       <c r="AQ87" t="inlineStr"/>
@@ -13495,7 +13499,7 @@
         <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K92" t="n">
         <v>2.1</v>
@@ -13516,16 +13520,16 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U92" t="n">
         <v>1.4</v>
@@ -13534,7 +13538,7 @@
         <v>2.75</v>
       </c>
       <c r="W92" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X92" t="n">
         <v>2</v>
@@ -13651,7 +13655,7 @@
         <v>6.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P93" t="n">
         <v>2.7</v>
@@ -13672,13 +13676,13 @@
         <v>1.45</v>
       </c>
       <c r="V93" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X93" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y93" t="n">
         <v>5.7</v>
@@ -13699,7 +13703,7 @@
         <v>35</v>
       </c>
       <c r="AE93" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF93" t="n">
         <v>7</v>
@@ -13729,7 +13733,7 @@
         <v>55</v>
       </c>
       <c r="AO93" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr"/>
@@ -13777,13 +13781,13 @@
         <v>2.07</v>
       </c>
       <c r="J94" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K94" t="n">
         <v>2.27</v>
       </c>
       <c r="L94" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
@@ -13798,10 +13802,10 @@
         <v>4.15</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R94" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S94" t="n">
         <v>2.4</v>
@@ -13822,10 +13826,10 @@
         <v>2.35</v>
       </c>
       <c r="Y94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA94" t="n">
         <v>10.75</v>
@@ -13834,7 +13838,7 @@
         <v>37</v>
       </c>
       <c r="AC94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD94" t="n">
         <v>25</v>
@@ -13855,10 +13859,10 @@
         <v>250</v>
       </c>
       <c r="AJ94" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL94" t="n">
         <v>8.75</v>
@@ -13870,7 +13874,7 @@
         <v>15</v>
       </c>
       <c r="AO94" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
@@ -14050,22 +14054,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H96" t="n">
         <v>3.35</v>
       </c>
       <c r="I96" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="J96" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -14101,10 +14105,10 @@
         <v>1.65</v>
       </c>
       <c r="X96" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y96" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z96" t="n">
         <v>12</v>
@@ -14116,7 +14120,7 @@
         <v>24</v>
       </c>
       <c r="AC96" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD96" t="n">
         <v>26</v>
@@ -14137,10 +14141,10 @@
         <v>350</v>
       </c>
       <c r="AJ96" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL96" t="n">
         <v>10</v>
@@ -14149,10 +14153,10 @@
         <v>32</v>
       </c>
       <c r="AN96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -692,61 +692,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X2" t="n">
         <v>2.2</v>
       </c>
-      <c r="S2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -758,28 +758,28 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>12</v>
@@ -791,10 +791,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -899,10 +899,10 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1004,34 +1004,34 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
@@ -1058,31 +1058,31 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
@@ -1128,7 +1128,7 @@
         <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1137,10 +1137,10 @@
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1290,10 +1290,10 @@
         <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>5.5</v>
@@ -1314,7 +1314,7 @@
         <v>1.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1350,13 +1350,13 @@
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
         <v>21</v>
@@ -1365,10 +1365,10 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR6" t="n">
         <v>4.7</v>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>5.5</v>
@@ -1427,28 +1427,28 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1457,10 +1457,10 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.75</v>
@@ -1472,16 +1472,16 @@
         <v>9.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
@@ -1496,16 +1496,16 @@
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
         <v>51</v>
@@ -1558,22 +1558,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1606,25 +1606,25 @@
         <v>2.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>23</v>
       </c>
       <c r="AD8" t="n">
         <v>34</v>
@@ -1648,16 +1648,16 @@
         <v>7.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>34</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -2416,22 +2416,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="K14" t="n">
         <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2440,52 +2440,52 @@
         <v>7.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
         <v>7.5</v>
@@ -2494,28 +2494,28 @@
         <v>7.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AL14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
         <v>60</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
@@ -2569,7 +2569,7 @@
         <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
         <v>5.5</v>
@@ -2581,37 +2581,37 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
         <v>8.5</v>
@@ -2635,13 +2635,13 @@
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -2659,15 +2659,15 @@
         <v>41</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="16">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2744,10 +2744,10 @@
         <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.67</v>
@@ -2756,7 +2756,7 @@
         <v>2.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2768,13 +2768,13 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD16" t="n">
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>7</v>
@@ -2792,13 +2792,13 @@
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>8.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
         <v>15</v>
@@ -2988,46 +2988,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U18" t="n">
         <v>1.53</v>
@@ -3051,16 +3051,16 @@
         <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
@@ -3087,16 +3087,16 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR18" t="n">
         <v>3.85</v>
@@ -3137,31 +3137,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L19" t="n">
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P19" t="n">
         <v>2.1</v>
@@ -3176,13 +3176,13 @@
         <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
         <v>2.5</v>
@@ -3194,7 +3194,7 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3203,13 +3203,13 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
@@ -3227,7 +3227,7 @@
         <v>6.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
@@ -4136,40 +4136,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.9</v>
       </c>
       <c r="S26" t="n">
         <v>3.4</v>
@@ -4178,67 +4178,67 @@
         <v>1.33</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
       </c>
       <c r="AD26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
         <v>29</v>
       </c>
-      <c r="AE26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>451</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
       <c r="AL26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4418,22 +4418,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4454,10 +4454,10 @@
         <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4472,7 +4472,7 @@
         <v>1.73</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z28" t="n">
         <v>8.5</v>
@@ -4481,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4499,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
         <v>351</v>
@@ -4511,7 +4511,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
         <v>41</v>
@@ -4565,22 +4565,22 @@
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L29" t="n">
         <v>4.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4616,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4649,7 +4649,7 @@
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -4664,10 +4664,10 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4725,7 +4725,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
@@ -4734,10 +4734,10 @@
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
         <v>3</v>
@@ -4758,7 +4758,7 @@
         <v>1.83</v>
       </c>
       <c r="Y30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z30" t="n">
         <v>7.5</v>
@@ -4851,7 +4851,7 @@
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J31" t="n">
         <v>3.6</v>
@@ -4860,13 +4860,13 @@
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
@@ -4881,10 +4881,10 @@
         <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -4911,7 +4911,7 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD31" t="n">
         <v>34</v>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
@@ -5005,7 +5005,7 @@
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -5044,10 +5044,10 @@
         <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
@@ -5068,7 +5068,7 @@
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
@@ -5080,16 +5080,16 @@
         <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
       </c>
       <c r="AM32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN32" t="n">
         <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
@@ -5573,7 +5573,7 @@
         <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5615,7 +5615,7 @@
         <v>6.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
@@ -5645,10 +5645,10 @@
         <v>351</v>
       </c>
       <c r="AJ36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL36" t="n">
         <v>13</v>
@@ -6114,28 +6114,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6171,22 +6171,22 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD40" t="n">
         <v>26</v>
       </c>
-      <c r="AC40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>29</v>
-      </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>6.5</v>
@@ -6201,16 +6201,16 @@
         <v>201</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL40" t="n">
         <v>10</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
         <v>21</v>
@@ -6255,22 +6255,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J41" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K41" t="n">
         <v>1.95</v>
       </c>
       <c r="L41" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6285,16 +6285,16 @@
         <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U41" t="n">
         <v>1.57</v>
@@ -6312,22 +6312,22 @@
         <v>5.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
         <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>6.5</v>
@@ -6342,16 +6342,16 @@
         <v>501</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
         <v>41</v>
@@ -6360,10 +6360,10 @@
         <v>51</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6400,22 +6400,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6442,22 +6442,22 @@
         <v>1.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X42" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y42" t="n">
         <v>7</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
@@ -6466,13 +6466,13 @@
         <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
         <v>6</v>
@@ -6499,7 +6499,7 @@
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO42" t="n">
         <v>41</v>
@@ -6541,19 +6541,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
         <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>6</v>
@@ -6565,16 +6565,16 @@
         <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6583,10 +6583,10 @@
         <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
         <v>2.25</v>
@@ -6601,13 +6601,13 @@
         <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
         <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
@@ -6628,10 +6628,10 @@
         <v>900</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
         <v>17</v>
@@ -6640,16 +6640,16 @@
         <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO43" t="n">
         <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6686,13 +6686,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
@@ -6701,7 +6701,7 @@
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6716,10 +6716,10 @@
         <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
         <v>3.75</v>
@@ -6740,7 +6740,7 @@
         <v>1.91</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z44" t="n">
         <v>15</v>
@@ -6749,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="n">
         <v>26</v>
@@ -6782,10 +6782,10 @@
         <v>9.5</v>
       </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO44" t="n">
         <v>29</v>
@@ -6827,85 +6827,85 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="H45" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I45" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y45" t="n">
         <v>6.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
         <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD45" t="n">
         <v>41</v>
       </c>
       <c r="AE45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF45" t="n">
         <v>6</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
         <v>67</v>
@@ -6914,13 +6914,13 @@
         <v>501</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL45" t="n">
         <v>12</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>11</v>
       </c>
       <c r="AM45" t="n">
         <v>29</v>
@@ -6932,10 +6932,10 @@
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -7633,28 +7633,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J51" t="n">
         <v>2.88</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
         <v>1.22</v>
@@ -7663,10 +7663,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>2.75</v>
@@ -7705,13 +7705,13 @@
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH51" t="n">
         <v>41</v>
@@ -7780,22 +7780,22 @@
         <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="K52" t="n">
         <v>2.4</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -7846,28 +7846,28 @@
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH52" t="n">
         <v>51</v>
       </c>
       <c r="AI52" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL52" t="n">
         <v>19</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>21</v>
       </c>
       <c r="AM52" t="n">
         <v>81</v>
@@ -7919,22 +7919,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H53" t="n">
         <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M53" t="n">
         <v>1.13</v>
@@ -7979,7 +7979,7 @@
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB53" t="n">
         <v>34</v>
@@ -8018,7 +8018,7 @@
         <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO53" t="n">
         <v>41</v>
@@ -8073,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K54" t="n">
         <v>2.5</v>
@@ -8094,16 +8094,16 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U54" t="n">
         <v>1.33</v>
@@ -8205,22 +8205,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
         <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -8265,16 +8265,16 @@
         <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE55" t="n">
         <v>19</v>
@@ -8295,7 +8295,7 @@
         <v>15</v>
       </c>
       <c r="AK55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
@@ -8368,10 +8368,10 @@
         <v>2.6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8380,10 +8380,10 @@
         <v>3.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>3</v>
@@ -8491,13 +8491,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J57" t="n">
         <v>2.75</v>
@@ -8506,7 +8506,7 @@
         <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8515,10 +8515,10 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q57" t="n">
         <v>1.65</v>
@@ -8539,10 +8539,10 @@
         <v>3.4</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y57" t="n">
         <v>10</v>
@@ -8581,10 +8581,10 @@
         <v>13</v>
       </c>
       <c r="AK57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM57" t="n">
         <v>34</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
         <v>2.25</v>
@@ -8653,7 +8653,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.22</v>
@@ -8719,7 +8719,7 @@
         <v>151</v>
       </c>
       <c r="AJ58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK58" t="n">
         <v>13</v>
@@ -8734,7 +8734,7 @@
         <v>19</v>
       </c>
       <c r="AO58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8773,16 +8773,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
         <v>2.38</v>
@@ -8836,7 +8836,7 @@
         <v>9</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
         <v>15</v>
@@ -8848,7 +8848,7 @@
         <v>15</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG59" t="n">
         <v>12</v>
@@ -8860,19 +8860,19 @@
         <v>126</v>
       </c>
       <c r="AJ59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK59" t="n">
         <v>21</v>
       </c>
       <c r="AL59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO59" t="n">
         <v>29</v>
@@ -8880,10 +8880,10 @@
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
       <c r="AR59" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="60">
@@ -8918,22 +8918,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H60" t="n">
         <v>3.9</v>
       </c>
       <c r="I60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K60" t="n">
         <v>2.5</v>
       </c>
       <c r="L60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8960,10 +8960,10 @@
         <v>1.62</v>
       </c>
       <c r="U60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W60" t="n">
         <v>1.53</v>
@@ -8972,7 +8972,7 @@
         <v>2.38</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z60" t="n">
         <v>10</v>
@@ -9008,19 +9008,19 @@
         <v>19</v>
       </c>
       <c r="AK60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL60" t="n">
         <v>15</v>
       </c>
       <c r="AM60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9069,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J61" t="n">
         <v>5</v>
@@ -9153,13 +9153,13 @@
         <v>8</v>
       </c>
       <c r="AK61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN61" t="n">
         <v>13</v>
@@ -9208,19 +9208,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H62" t="n">
         <v>4.75</v>
       </c>
       <c r="I62" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J62" t="n">
         <v>1.91</v>
       </c>
       <c r="K62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L62" t="n">
         <v>5.5</v>
@@ -9256,22 +9256,22 @@
         <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X62" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y62" t="n">
         <v>11</v>
       </c>
       <c r="Z62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA62" t="n">
         <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
         <v>11</v>
@@ -9310,7 +9310,7 @@
         <v>41</v>
       </c>
       <c r="AO62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP62" t="inlineStr"/>
       <c r="AQ62" t="inlineStr"/>
@@ -9349,7 +9349,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H63" t="n">
         <v>3.75</v>
@@ -9456,10 +9456,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="64">
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
@@ -9518,22 +9518,22 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R64" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U64" t="n">
         <v>1.3</v>
@@ -9601,10 +9601,10 @@
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="65">
@@ -9788,10 +9788,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H66" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I66" t="n">
         <v>12</v>
@@ -9800,7 +9800,7 @@
         <v>1.67</v>
       </c>
       <c r="K66" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L66" t="n">
         <v>9.5</v>
@@ -9842,7 +9842,7 @@
         <v>1.67</v>
       </c>
       <c r="Y66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z66" t="n">
         <v>6.5</v>
@@ -9860,7 +9860,7 @@
         <v>29</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF66" t="n">
         <v>11</v>
@@ -9899,10 +9899,10 @@
         <v>3.9</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="67">
@@ -10078,13 +10078,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J68" t="n">
         <v>3.75</v>
@@ -10096,22 +10096,22 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S68" t="n">
         <v>3.75</v>
@@ -10132,7 +10132,7 @@
         <v>1.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z68" t="n">
         <v>15</v>
@@ -10144,10 +10144,10 @@
         <v>34</v>
       </c>
       <c r="AC68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE68" t="n">
         <v>8.5</v>
@@ -10168,7 +10168,7 @@
         <v>7.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL68" t="n">
         <v>9.5</v>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H70" t="n">
         <v>4</v>
@@ -10394,10 +10394,10 @@
         <v>3.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S70" t="n">
         <v>3</v>
@@ -10505,52 +10505,52 @@
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I71" t="n">
         <v>2.88</v>
       </c>
-      <c r="H71" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K71" t="n">
         <v>1.91</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P71" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R71" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W71" t="n">
         <v>2.1</v>
@@ -10559,25 +10559,25 @@
         <v>1.67</v>
       </c>
       <c r="Y71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
       </c>
       <c r="AE71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF71" t="n">
         <v>6</v>
@@ -10595,25 +10595,25 @@
         <v>6.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO71" t="n">
         <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -11387,22 +11387,22 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U77" t="n">
         <v>1.33</v>
@@ -11526,10 +11526,10 @@
         <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>1.1</v>
@@ -11797,31 +11797,31 @@
         <v>1.75</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="J80" t="n">
         <v>2.42</v>
       </c>
       <c r="K80" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L80" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="M80" t="n">
         <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="O80" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P80" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q80" t="n">
         <v>2.1</v>
@@ -11830,49 +11830,49 @@
         <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T80" t="n">
         <v>1.25</v>
       </c>
       <c r="U80" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V80" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W80" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X80" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z80" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC80" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE80" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF80" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AG80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH80" t="n">
         <v>90</v>
@@ -11881,22 +11881,22 @@
         <v>900</v>
       </c>
       <c r="AJ80" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK80" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL80" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN80" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="n">
         <v>55</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>60</v>
       </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
@@ -12217,61 +12217,61 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K83" t="n">
         <v>2.1</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O83" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S83" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T83" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U83" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V83" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X83" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z83" t="n">
         <v>9.5</v>
@@ -12280,34 +12280,34 @@
         <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD83" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE83" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
         <v>6</v>
       </c>
       <c r="AG83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH83" t="n">
         <v>51</v>
       </c>
       <c r="AI83" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ83" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -13345,22 +13345,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
         <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.5</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
@@ -13375,10 +13375,10 @@
         <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R91" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S91" t="n">
         <v>4.33</v>
@@ -13408,7 +13408,7 @@
         <v>9</v>
       </c>
       <c r="AB91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC91" t="n">
         <v>17</v>
@@ -13417,10 +13417,10 @@
         <v>34</v>
       </c>
       <c r="AE91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF91" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG91" t="n">
         <v>19</v>
@@ -13499,7 +13499,7 @@
         <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.1</v>
@@ -13538,7 +13538,7 @@
         <v>2.75</v>
       </c>
       <c r="W92" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X92" t="n">
         <v>2</v>
@@ -13655,7 +13655,7 @@
         <v>6.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
         <v>2.7</v>
@@ -13679,10 +13679,10 @@
         <v>2.4</v>
       </c>
       <c r="W93" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y93" t="n">
         <v>5.7</v>
@@ -13712,13 +13712,13 @@
         <v>19.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI93" t="n">
         <v>900</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK93" t="n">
         <v>26</v>
@@ -13772,22 +13772,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.92</v>
+        <v>2.67</v>
       </c>
       <c r="H94" t="n">
         <v>3.6</v>
       </c>
       <c r="I94" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="J94" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K94" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L94" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
@@ -13823,31 +13823,31 @@
         <v>1.52</v>
       </c>
       <c r="X94" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z94" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB94" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC94" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE94" t="n">
         <v>9</v>
       </c>
       <c r="AF94" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG94" t="n">
         <v>12</v>
@@ -13859,22 +13859,22 @@
         <v>250</v>
       </c>
       <c r="AJ94" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK94" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL94" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM94" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO94" t="n">
         <v>21</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>20</v>
       </c>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
@@ -13940,22 +13940,22 @@
         <v>1.15</v>
       </c>
       <c r="P95" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Q95" t="n">
         <v>1.47</v>
       </c>
       <c r="R95" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S95" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T95" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U95" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V95" t="n">
         <v>3.45</v>
@@ -13967,19 +13967,19 @@
         <v>1.78</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA95" t="n">
         <v>9</v>
       </c>
       <c r="AB95" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AC95" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD95" t="n">
         <v>26</v>
@@ -13997,10 +13997,10 @@
         <v>100</v>
       </c>
       <c r="AI95" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ95" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK95" t="n">
         <v>70</v>
@@ -14063,25 +14063,25 @@
         <v>2.67</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K96" t="n">
         <v>2.15</v>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O96" t="n">
         <v>1.26</v>
       </c>
       <c r="P96" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q96" t="n">
         <v>1.78</v>
@@ -14090,7 +14090,7 @@
         <v>1.93</v>
       </c>
       <c r="S96" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T96" t="n">
         <v>1.37</v>
@@ -14099,49 +14099,49 @@
         <v>1.38</v>
       </c>
       <c r="V96" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W96" t="n">
         <v>1.65</v>
       </c>
       <c r="X96" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y96" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z96" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA96" t="n">
         <v>9.25</v>
       </c>
       <c r="AB96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE96" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF96" t="n">
         <v>6.6</v>
       </c>
       <c r="AG96" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI96" t="n">
         <v>350</v>
       </c>
       <c r="AJ96" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK96" t="n">
         <v>14.5</v>
@@ -14153,10 +14153,10 @@
         <v>32</v>
       </c>
       <c r="AN96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -1260,97 +1260,97 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.88</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="n">
         <v>5.5</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>501</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1365,16 +1365,16 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -1409,28 +1409,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1457,22 +1457,22 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>21</v>
@@ -1481,37 +1481,37 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO7" t="n">
         <v>51</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>2.1</v>
@@ -1520,10 +1520,10 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -1558,46 +1558,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.05</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U8" t="n">
         <v>1.44</v>
@@ -1606,61 +1606,61 @@
         <v>2.63</v>
       </c>
       <c r="W8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.95</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.8</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>34</v>
-      </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP8" t="n">
         <v>1.78</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="9">
@@ -2988,103 +2988,103 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
       </c>
       <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>17</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>29</v>
@@ -3093,16 +3093,16 @@
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="19">
@@ -3155,13 +3155,13 @@
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
         <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>2.1</v>
@@ -3176,13 +3176,13 @@
         <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>2.5</v>
@@ -3203,13 +3203,13 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
@@ -4025,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -7648,31 +7648,31 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U51" t="n">
         <v>1.36</v>
@@ -7681,10 +7681,10 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y51" t="n">
         <v>9</v>
@@ -7774,28 +7774,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K52" t="n">
         <v>2.4</v>
       </c>
       <c r="L52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -7864,10 +7864,10 @@
         <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM52" t="n">
         <v>81</v>
@@ -7919,22 +7919,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K53" t="n">
         <v>1.83</v>
       </c>
       <c r="L53" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.13</v>
@@ -7943,10 +7943,10 @@
         <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q53" t="n">
         <v>2.88</v>
@@ -7955,16 +7955,16 @@
         <v>1.4</v>
       </c>
       <c r="S53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W53" t="n">
         <v>2.25</v>
@@ -7973,13 +7973,13 @@
         <v>1.57</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA53" t="n">
         <v>13</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>12</v>
       </c>
       <c r="AB53" t="n">
         <v>34</v>
@@ -7991,7 +7991,7 @@
         <v>51</v>
       </c>
       <c r="AE53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF53" t="n">
         <v>6</v>
@@ -8006,19 +8006,19 @@
         <v>351</v>
       </c>
       <c r="AJ53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL53" t="n">
         <v>11</v>
       </c>
       <c r="AM53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN53" t="n">
         <v>26</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>29</v>
       </c>
       <c r="AO53" t="n">
         <v>41</v>
@@ -8082,10 +8082,10 @@
         <v>9.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.22</v>
@@ -8112,13 +8112,13 @@
         <v>3.25</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z54" t="n">
         <v>6</v>
@@ -8142,7 +8142,7 @@
         <v>10</v>
       </c>
       <c r="AG54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH54" t="n">
         <v>81</v>
@@ -9893,10 +9893,10 @@
         <v>67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AR66" t="n">
         <v>1.93</v>
@@ -13631,22 +13631,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>3.55</v>
       </c>
       <c r="I93" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K93" t="n">
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
         <v>1.1</v>
@@ -13658,43 +13658,43 @@
         <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S93" t="n">
         <v>3.4</v>
       </c>
       <c r="T93" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U93" t="n">
         <v>1.45</v>
       </c>
       <c r="V93" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X93" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y93" t="n">
         <v>5.7</v>
       </c>
       <c r="Z93" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA93" t="n">
         <v>8.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC93" t="n">
         <v>15</v>
@@ -13712,22 +13712,22 @@
         <v>19.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI93" t="n">
         <v>900</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK93" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL93" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM93" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-07.xlsx
@@ -1558,61 +1558,61 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.8</v>
       </c>
-      <c r="X8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>12</v>
@@ -1624,31 +1624,31 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>10</v>
@@ -1657,10 +1657,10 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP8" t="n">
         <v>1.78</v>
@@ -1669,10 +1669,10 @@
         <v>2.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
@@ -3173,10 +3173,10 @@
         <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U19" t="n">
         <v>1.73</v>
@@ -3995,13 +3995,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>2.6</v>
@@ -4025,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>3.75</v>
@@ -4052,7 +4052,7 @@
         <v>6.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
         <v>9</v>
@@ -4094,7 +4094,7 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -7633,13 +7633,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
         <v>2.88</v>
@@ -7648,7 +7648,7 @@
         <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7663,10 +7663,10 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>3</v>
@@ -7693,7 +7693,7 @@
         <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
         <v>21</v>
@@ -7702,16 +7702,16 @@
         <v>17</v>
       </c>
       <c r="AD51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
         <v>6.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH51" t="n">
         <v>41</v>
@@ -7723,13 +7723,13 @@
         <v>11</v>
       </c>
       <c r="AK51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL51" t="n">
         <v>11</v>
       </c>
       <c r="AM51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>23</v>
@@ -7774,22 +7774,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K52" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7798,82 +7798,82 @@
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X52" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA52" t="n">
         <v>8.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>401</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>21</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>17</v>
       </c>
       <c r="AK52" t="n">
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO52" t="n">
         <v>51</v>
@@ -9899,10 +9899,10 @@
         <v>4</v>
       </c>
       <c r="AR66" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="67">
